--- a/DDAf_2025_Tableau_annexe_Tab31.xlsx
+++ b/DDAf_2025_Tableau_annexe_Tab31.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{966041E8-D4EE-4F18-9D77-7C165A864CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{22BD9679-E444-4BDD-952F-EF71EA3F436D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{D93F07B0-3D19-4B7B-9C2A-BD24E7AFBFDD}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{B6CA04D5-5F64-4BA3-A028-1CEE4B10B08C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab31" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="176">
   <si>
     <t>Table 31: International trade costs</t>
   </si>
@@ -90,15 +90,15 @@
     <t>Angola*</t>
   </si>
   <si>
+    <t>..</t>
+  </si>
+  <si>
     <t>BWA</t>
   </si>
   <si>
     <t>Botswana</t>
   </si>
   <si>
-    <t>Update will be coming soon</t>
-  </si>
-  <si>
     <t>SWZ</t>
   </si>
   <si>
@@ -558,13 +558,13 @@
     <t>CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000 (in a compressed file format).</t>
   </si>
   <si>
-    <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails, cliquez ici.</t>
-  </si>
-  <si>
-    <t>Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs, cliquez ici.</t>
-  </si>
-  <si>
-    <t>Pour voir la liste complète des sources utilisées dans l'annexe statistique, cliquez ici.</t>
+    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
+  </si>
+  <si>
+    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators, click here.</t>
+  </si>
+  <si>
+    <t>To see the full list of sources used in the Statistical Annex, click here.</t>
   </si>
 </sst>
 </file>
@@ -574,7 +574,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -643,13 +643,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="35"/>
       <color theme="1"/>
       <name val="Calibri Light"/>
       <family val="2"/>
@@ -949,7 +942,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1000,8 +993,11 @@
     <xf numFmtId="37" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1015,12 +1011,6 @@
     <xf numFmtId="37" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1033,19 +1023,19 @@
     <xf numFmtId="37" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="12" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="12" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="12" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1099,25 +1089,25 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1132,13 +1122,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="15" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1165,28 +1155,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="15" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="15" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="15" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
@@ -1470,11 +1460,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF966C96-2792-47F1-A01D-865FF1D83C60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{121AB1FD-6E93-41F2-BF91-F411A0409F2E}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O113"/>
+  <dimension ref="A1:N113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1482,11 +1472,11 @@
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="14.42578125" style="83" customWidth="1"/>
+    <col min="3" max="14" width="14.42578125" style="82" customWidth="1"/>
     <col min="15" max="26" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1503,7 +1493,7 @@
       <c r="M1" s="4"/>
       <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="1:15" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1547,963 +1537,2109 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="15"/>
-    </row>
-    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="13">
+        <v>135.414885</v>
+      </c>
+      <c r="D3" s="14">
+        <v>164.08257399999999</v>
+      </c>
+      <c r="E3" s="14">
+        <v>171.431748</v>
+      </c>
+      <c r="F3" s="14">
+        <v>184.43594300000001</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="13">
+        <v>331.73368399999998</v>
+      </c>
+      <c r="J3" s="14">
+        <v>238.223399</v>
+      </c>
+      <c r="K3" s="14">
+        <v>285.32863700000001</v>
+      </c>
+      <c r="L3" s="14">
+        <v>562.97461699999997</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-    </row>
-    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="17">
+        <v>53.165309000000001</v>
+      </c>
+      <c r="D4" s="18">
+        <v>54.473115</v>
+      </c>
+      <c r="E4" s="18">
+        <v>56.017752999999999</v>
+      </c>
+      <c r="F4" s="18">
+        <v>140.30552299999999</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="17">
+        <v>76.482681999999997</v>
+      </c>
+      <c r="J4" s="18">
+        <v>79.340995000000007</v>
+      </c>
+      <c r="K4" s="18">
+        <v>80.623238000000001</v>
+      </c>
+      <c r="L4" s="18">
+        <v>283.66100799999998</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-    </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="21">
+        <v>42.029769000000002</v>
+      </c>
+      <c r="D5" s="22">
+        <v>47.231614</v>
+      </c>
+      <c r="E5" s="22">
+        <v>67.039286000000004</v>
+      </c>
+      <c r="F5" s="22">
+        <v>126.180218</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="21">
+        <v>74.630435000000006</v>
+      </c>
+      <c r="J5" s="22">
+        <v>91.894812000000002</v>
+      </c>
+      <c r="K5" s="22">
+        <v>109.436486</v>
+      </c>
+      <c r="L5" s="22">
+        <v>130.94083599999999</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-    </row>
-    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="21">
+        <v>41.224167000000001</v>
+      </c>
+      <c r="D6" s="22">
+        <v>45.077632000000001</v>
+      </c>
+      <c r="E6" s="22">
+        <v>45.765011999999999</v>
+      </c>
+      <c r="F6" s="22">
+        <v>167.766469</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="21">
+        <v>77.351708000000002</v>
+      </c>
+      <c r="J6" s="22">
+        <v>86.338920000000002</v>
+      </c>
+      <c r="K6" s="22">
+        <v>86.338920000000002</v>
+      </c>
+      <c r="L6" s="22">
+        <v>116.15107500000001</v>
+      </c>
+      <c r="M6" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C7" s="21">
+        <v>119.190494</v>
+      </c>
+      <c r="D7" s="22">
+        <v>129.94880900000001</v>
+      </c>
+      <c r="E7" s="22">
+        <v>141.197903</v>
+      </c>
+      <c r="F7" s="22">
+        <v>249.622849</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="21">
+        <v>145.986964</v>
+      </c>
+      <c r="J7" s="22">
+        <v>129.67994300000001</v>
+      </c>
+      <c r="K7" s="22">
+        <v>162.001676</v>
+      </c>
+      <c r="L7" s="22">
+        <v>268.28108800000001</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="22"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C8" s="21">
+        <v>64.744134000000003</v>
+      </c>
+      <c r="D8" s="22">
+        <v>65.920464999999993</v>
+      </c>
+      <c r="E8" s="22">
+        <v>79.267098000000004</v>
+      </c>
+      <c r="F8" s="22">
+        <v>138.14867799999999</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="21">
+        <v>96.991826000000003</v>
+      </c>
+      <c r="J8" s="22">
+        <v>97.642128</v>
+      </c>
+      <c r="K8" s="22">
+        <v>101.254059</v>
+      </c>
+      <c r="L8" s="22">
+        <v>243.64013399999999</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="22"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C9" s="21">
+        <v>49.408878000000001</v>
+      </c>
+      <c r="D9" s="22">
+        <v>52.045972999999996</v>
+      </c>
+      <c r="E9" s="22">
+        <v>95.062359999999998</v>
+      </c>
+      <c r="F9" s="22">
+        <v>168.02761799999999</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="21">
+        <v>110.63370999999999</v>
+      </c>
+      <c r="J9" s="22">
+        <v>113.198977</v>
+      </c>
+      <c r="K9" s="22">
+        <v>140.87571399999999</v>
+      </c>
+      <c r="L9" s="22">
+        <v>276.15685100000002</v>
+      </c>
+      <c r="M9" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="22"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C10" s="21">
+        <v>49.406602999999997</v>
+      </c>
+      <c r="D10" s="22">
+        <v>54.103161</v>
+      </c>
+      <c r="E10" s="22">
+        <v>84.867689999999996</v>
+      </c>
+      <c r="F10" s="22">
+        <v>105.03921699999999</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="21">
+        <v>65.392292999999995</v>
+      </c>
+      <c r="J10" s="22">
+        <v>72.687211000000005</v>
+      </c>
+      <c r="K10" s="22">
+        <v>128.15194500000001</v>
+      </c>
+      <c r="L10" s="22">
+        <v>158.37767700000001</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="24"/>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="17">
+        <v>287.14316100000002</v>
+      </c>
+      <c r="J11" s="18">
+        <v>135.091947</v>
+      </c>
+      <c r="K11" s="18">
+        <v>237.975919</v>
+      </c>
+      <c r="L11" s="18">
+        <v>325.06694499999998</v>
+      </c>
+      <c r="M11" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="28"/>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30" t="s">
+      <c r="C12" s="25">
+        <v>64.116470000000007</v>
+      </c>
+      <c r="D12" s="26">
+        <v>68.248041999999998</v>
+      </c>
+      <c r="E12" s="26">
+        <v>101.86180400000001</v>
+      </c>
+      <c r="F12" s="26">
+        <v>209.24949699999999</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="25">
+        <v>53.862924999999997</v>
+      </c>
+      <c r="J12" s="26">
+        <v>60.896802999999998</v>
+      </c>
+      <c r="K12" s="26">
+        <v>78.276915000000002</v>
+      </c>
+      <c r="L12" s="26">
+        <v>403.37955699999998</v>
+      </c>
+      <c r="M12" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" s="27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="28"/>
+      <c r="B13" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="33"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C13" s="30">
+        <v>52.829191000000002</v>
+      </c>
+      <c r="D13" s="31">
+        <v>58.381310999999997</v>
+      </c>
+      <c r="E13" s="31">
+        <v>84.305076999999997</v>
+      </c>
+      <c r="F13" s="31">
+        <v>127.085515</v>
+      </c>
+      <c r="G13" s="31">
+        <v>58.381310999999997</v>
+      </c>
+      <c r="H13" s="32">
+        <v>141.48352499999999</v>
+      </c>
+      <c r="I13" s="30">
+        <v>94.599553999999998</v>
+      </c>
+      <c r="J13" s="31">
+        <v>88.715366000000003</v>
+      </c>
+      <c r="K13" s="31">
+        <v>131.78167400000001</v>
+      </c>
+      <c r="L13" s="31">
+        <v>233.61796000000001</v>
+      </c>
+      <c r="M13" s="31">
+        <v>88.715366000000003</v>
+      </c>
+      <c r="N13" s="32">
+        <v>268.52689800000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="22"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C14" s="21">
+        <v>140.564547</v>
+      </c>
+      <c r="D14" s="22">
+        <v>167.952743</v>
+      </c>
+      <c r="E14" s="22">
+        <v>169.98926900000001</v>
+      </c>
+      <c r="F14" s="22">
+        <v>277.04805399999998</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="21">
+        <v>315.390513</v>
+      </c>
+      <c r="J14" s="22">
+        <v>583.35818900000004</v>
+      </c>
+      <c r="K14" s="22">
+        <v>298.50103200000001</v>
+      </c>
+      <c r="L14" s="22">
+        <v>400.82021800000001</v>
+      </c>
+      <c r="M14" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="22"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C15" s="21">
+        <v>175.469291</v>
+      </c>
+      <c r="D15" s="22">
+        <v>85.224252000000007</v>
+      </c>
+      <c r="E15" s="22">
+        <v>182.36026799999999</v>
+      </c>
+      <c r="F15" s="22">
+        <v>197.182624</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="21">
+        <v>322.20257400000003</v>
+      </c>
+      <c r="J15" s="22">
+        <v>222.65901299999999</v>
+      </c>
+      <c r="K15" s="22">
+        <v>333.864529</v>
+      </c>
+      <c r="L15" s="22">
+        <v>274.99789800000002</v>
+      </c>
+      <c r="M15" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="22"/>
+      <c r="C16" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="22">
+        <v>279.37021199999998</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N16" s="23" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="37"/>
+      <c r="C17" s="34">
+        <v>242.301604</v>
+      </c>
+      <c r="D17" s="35">
+        <v>340.29494599999998</v>
+      </c>
+      <c r="E17" s="35">
+        <v>330.18941000000001</v>
+      </c>
+      <c r="F17" s="35">
+        <v>265.95585499999999</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="34">
+        <v>387.00804499999998</v>
+      </c>
+      <c r="J17" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="35">
+        <v>381.99617499999999</v>
+      </c>
+      <c r="M17" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="N17" s="36" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="37"/>
+      <c r="C18" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="35">
+        <v>178.34525099999999</v>
+      </c>
+      <c r="F18" s="35">
+        <v>176.73118099999999</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="35">
+        <v>281.05373300000002</v>
+      </c>
+      <c r="M18" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18" s="36" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="24"/>
+      <c r="C19" s="17">
+        <v>83.975939999999994</v>
+      </c>
+      <c r="D19" s="18">
+        <v>186.87748999999999</v>
+      </c>
+      <c r="E19" s="18">
+        <v>116.90703000000001</v>
+      </c>
+      <c r="F19" s="18">
+        <v>162.69131100000001</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="17">
+        <v>375.00545799999998</v>
+      </c>
+      <c r="J19" s="18">
+        <v>533.86401499999999</v>
+      </c>
+      <c r="K19" s="18">
+        <v>389.00818099999998</v>
+      </c>
+      <c r="L19" s="18">
+        <v>337.187771</v>
+      </c>
+      <c r="M19" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19" s="19" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="37"/>
+      <c r="C20" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="35">
+        <v>199.76686699999999</v>
+      </c>
+      <c r="E20" s="35">
+        <v>166.55147400000001</v>
+      </c>
+      <c r="F20" s="35">
+        <v>245.975966</v>
+      </c>
+      <c r="G20" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="35">
+        <v>262.76875899999999</v>
+      </c>
+      <c r="M20" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="N20" s="36" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="37"/>
+      <c r="C21" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="M21" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="N21" s="36" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="39"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="41"/>
+      <c r="C22" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="39">
+        <v>274.49676399999998</v>
+      </c>
+      <c r="E22" s="39">
+        <v>289.47270099999997</v>
+      </c>
+      <c r="F22" s="39">
+        <v>225.484151</v>
+      </c>
+      <c r="G22" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="39">
+        <v>251.74236999999999</v>
+      </c>
+      <c r="M22" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="N22" s="40" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
-      <c r="B23" s="30" t="s">
+      <c r="A23" s="28"/>
+      <c r="B23" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="33"/>
+      <c r="C23" s="30">
+        <v>120.572165</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="31">
+        <v>139.71540300000001</v>
+      </c>
+      <c r="F23" s="31">
+        <v>184.97574399999999</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="32">
+        <v>185.13191</v>
+      </c>
+      <c r="I23" s="30">
+        <v>359.36785400000002</v>
+      </c>
+      <c r="J23" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="31">
+        <v>377.42501299999998</v>
+      </c>
+      <c r="L23" s="31">
+        <v>314.73837300000002</v>
+      </c>
+      <c r="M23" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="N23" s="32">
+        <v>314.31396599999999</v>
+      </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="43"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="45"/>
+      <c r="C24" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="43">
+        <v>462.24218500000001</v>
+      </c>
+      <c r="K24" s="43">
+        <v>438.529336</v>
+      </c>
+      <c r="L24" s="43">
+        <v>393.18429200000003</v>
+      </c>
+      <c r="M24" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="N24" s="44" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="22"/>
+      <c r="C25" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="M25" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N25" s="23" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="22"/>
+      <c r="C26" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="M26" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N26" s="23" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="22"/>
+      <c r="C27" s="21">
+        <v>148.084283</v>
+      </c>
+      <c r="D27" s="22">
+        <v>162.64148700000001</v>
+      </c>
+      <c r="E27" s="22">
+        <v>241.82704200000001</v>
+      </c>
+      <c r="F27" s="22">
+        <v>235.72431499999999</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="21">
+        <v>222.39555799999999</v>
+      </c>
+      <c r="J27" s="22">
+        <v>271.14581399999997</v>
+      </c>
+      <c r="K27" s="22">
+        <v>432.651861</v>
+      </c>
+      <c r="L27" s="22">
+        <v>318.05851200000001</v>
+      </c>
+      <c r="M27" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N27" s="23" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="22"/>
+      <c r="C28" s="21">
+        <v>82.544489999999996</v>
+      </c>
+      <c r="D28" s="22">
+        <v>90.764421999999996</v>
+      </c>
+      <c r="E28" s="22">
+        <v>121.825959</v>
+      </c>
+      <c r="F28" s="22">
+        <v>174.856605</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="21">
+        <v>146.26462000000001</v>
+      </c>
+      <c r="J28" s="22">
+        <v>168.996982</v>
+      </c>
+      <c r="K28" s="22">
+        <v>200.47806299999999</v>
+      </c>
+      <c r="L28" s="22">
+        <v>259.16444100000001</v>
+      </c>
+      <c r="M28" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N28" s="23" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="22"/>
+      <c r="C29" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="22">
+        <v>103.895872</v>
+      </c>
+      <c r="E29" s="22">
+        <v>188.69420099999999</v>
+      </c>
+      <c r="F29" s="22">
+        <v>173.43962500000001</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="22">
+        <v>253.251204</v>
+      </c>
+      <c r="K29" s="22">
+        <v>304.69223199999999</v>
+      </c>
+      <c r="L29" s="22">
+        <v>287.70259499999997</v>
+      </c>
+      <c r="M29" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N29" s="23" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="22"/>
+      <c r="C30" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="22">
+        <v>112.80935100000001</v>
+      </c>
+      <c r="E30" s="22">
+        <v>137.492142</v>
+      </c>
+      <c r="F30" s="22">
+        <v>159.01138800000001</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="22">
+        <v>263.74840799999998</v>
+      </c>
+      <c r="K30" s="22">
+        <v>216.48242500000001</v>
+      </c>
+      <c r="L30" s="22">
+        <v>272.34567399999997</v>
+      </c>
+      <c r="M30" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N30" s="23" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="22"/>
+      <c r="C31" s="21">
+        <v>146.67048199999999</v>
+      </c>
+      <c r="D31" s="22">
+        <v>138.94075900000001</v>
+      </c>
+      <c r="E31" s="22">
+        <v>192.169937</v>
+      </c>
+      <c r="F31" s="22">
+        <v>251.22186300000001</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="21">
+        <v>364.91308900000001</v>
+      </c>
+      <c r="J31" s="22">
+        <v>220.66992099999999</v>
+      </c>
+      <c r="K31" s="22">
+        <v>249.75853900000001</v>
+      </c>
+      <c r="L31" s="22">
+        <v>385.39611200000002</v>
+      </c>
+      <c r="M31" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N31" s="23" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="22"/>
+      <c r="C32" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="22">
+        <v>206.596452</v>
+      </c>
+      <c r="K32" s="22">
+        <v>223.841399</v>
+      </c>
+      <c r="L32" s="22">
+        <v>301.70733000000001</v>
+      </c>
+      <c r="M32" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N32" s="23" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="22"/>
+      <c r="C33" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L33" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="M33" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N33" s="23" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="35"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="37"/>
+      <c r="C34" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="L34" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="M34" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="N34" s="36" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="22"/>
+      <c r="C35" s="21">
+        <v>110.545419</v>
+      </c>
+      <c r="D35" s="22">
+        <v>233.87425400000001</v>
+      </c>
+      <c r="E35" s="22">
+        <v>143.85912099999999</v>
+      </c>
+      <c r="F35" s="22">
+        <v>151.3663</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="21">
+        <v>176.262393</v>
+      </c>
+      <c r="J35" s="22">
+        <v>222.40139099999999</v>
+      </c>
+      <c r="K35" s="22">
+        <v>189.65408400000001</v>
+      </c>
+      <c r="L35" s="22">
+        <v>202.56221500000001</v>
+      </c>
+      <c r="M35" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N35" s="23" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="22"/>
+      <c r="C36" s="21">
+        <v>83.260744000000003</v>
+      </c>
+      <c r="D36" s="22">
+        <v>97.538876000000002</v>
+      </c>
+      <c r="E36" s="22">
+        <v>92.313643999999996</v>
+      </c>
+      <c r="F36" s="22">
+        <v>152.393505</v>
+      </c>
+      <c r="G36" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="21">
+        <v>254.45039499999999</v>
+      </c>
+      <c r="J36" s="22">
+        <v>183.12048899999999</v>
+      </c>
+      <c r="K36" s="22">
+        <v>254.99353300000001</v>
+      </c>
+      <c r="L36" s="22">
+        <v>282.49907200000001</v>
+      </c>
+      <c r="M36" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N36" s="23" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="37" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="28"/>
+      <c r="C37" s="25">
+        <v>92.904205000000005</v>
+      </c>
+      <c r="D37" s="26">
+        <v>97.510270000000006</v>
+      </c>
+      <c r="E37" s="26">
+        <v>161.920084</v>
+      </c>
+      <c r="F37" s="26">
+        <v>182.158389</v>
+      </c>
+      <c r="G37" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" s="25">
+        <v>141.062926</v>
+      </c>
+      <c r="J37" s="26">
+        <v>144.75168099999999</v>
+      </c>
+      <c r="K37" s="26">
+        <v>197.48085599999999</v>
+      </c>
+      <c r="L37" s="26">
+        <v>261.512992</v>
+      </c>
+      <c r="M37" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="N37" s="27" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="38" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="29"/>
-      <c r="B38" s="30" t="s">
+      <c r="A38" s="28"/>
+      <c r="B38" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="31"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="32"/>
-      <c r="N38" s="33"/>
+      <c r="C38" s="30">
+        <v>89.503927000000004</v>
+      </c>
+      <c r="D38" s="31">
+        <v>102.69941799999999</v>
+      </c>
+      <c r="E38" s="31">
+        <v>137.24181300000001</v>
+      </c>
+      <c r="F38" s="31">
+        <v>177.85409799999999</v>
+      </c>
+      <c r="G38" s="31">
+        <v>102.69941799999999</v>
+      </c>
+      <c r="H38" s="32">
+        <v>184.119947</v>
+      </c>
+      <c r="I38" s="30">
+        <v>191.33461</v>
+      </c>
+      <c r="J38" s="31">
+        <v>177.30378899999999</v>
+      </c>
+      <c r="K38" s="31">
+        <v>232.318018</v>
+      </c>
+      <c r="L38" s="31">
+        <v>270.82676500000002</v>
+      </c>
+      <c r="M38" s="31">
+        <v>177.30378899999999</v>
+      </c>
+      <c r="N38" s="32">
+        <v>278.89955600000002</v>
+      </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B39" s="46" t="s">
+      <c r="B39" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="47"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="47"/>
-      <c r="J39" s="48"/>
-      <c r="K39" s="48"/>
-      <c r="L39" s="48"/>
-      <c r="M39" s="48"/>
-      <c r="N39" s="49"/>
+      <c r="C39" s="46">
+        <v>91.183381999999995</v>
+      </c>
+      <c r="D39" s="47">
+        <v>90.927940000000007</v>
+      </c>
+      <c r="E39" s="47">
+        <v>102.36112300000001</v>
+      </c>
+      <c r="F39" s="47">
+        <v>109.550363</v>
+      </c>
+      <c r="G39" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" s="46">
+        <v>250.50480400000001</v>
+      </c>
+      <c r="J39" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="K39" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="L39" s="47">
+        <v>271.554079</v>
+      </c>
+      <c r="M39" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="N39" s="48" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="22"/>
+      <c r="C40" s="21">
+        <v>162.19438099999999</v>
+      </c>
+      <c r="D40" s="22">
+        <v>112.704031</v>
+      </c>
+      <c r="E40" s="22">
+        <v>181.60923500000001</v>
+      </c>
+      <c r="F40" s="22">
+        <v>140.015793</v>
+      </c>
+      <c r="G40" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" s="21">
+        <v>224.78089800000001</v>
+      </c>
+      <c r="J40" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" s="22">
+        <v>283.53925900000002</v>
+      </c>
+      <c r="L40" s="22">
+        <v>189.91393299999999</v>
+      </c>
+      <c r="M40" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N40" s="23" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B41" s="50" t="s">
+      <c r="B41" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="35"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="37"/>
+      <c r="C41" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="K41" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="L41" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="M41" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="N41" s="36" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B42" s="50" t="s">
+      <c r="B42" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="C42" s="35"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="36"/>
-      <c r="L42" s="36"/>
-      <c r="M42" s="36"/>
-      <c r="N42" s="37"/>
+      <c r="C42" s="34">
+        <v>129.88137900000001</v>
+      </c>
+      <c r="D42" s="35">
+        <v>137.535933</v>
+      </c>
+      <c r="E42" s="35">
+        <v>149.26990900000001</v>
+      </c>
+      <c r="F42" s="35">
+        <v>155.74348000000001</v>
+      </c>
+      <c r="G42" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" s="34">
+        <v>266.697001</v>
+      </c>
+      <c r="J42" s="35">
+        <v>267.54247900000001</v>
+      </c>
+      <c r="K42" s="35">
+        <v>278.81377800000001</v>
+      </c>
+      <c r="L42" s="35">
+        <v>396.61359700000003</v>
+      </c>
+      <c r="M42" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="N42" s="36" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="21"/>
-      <c r="M43" s="21"/>
-      <c r="N43" s="22"/>
+      <c r="C43" s="21">
+        <v>43.560074999999998</v>
+      </c>
+      <c r="D43" s="22">
+        <v>112.647648</v>
+      </c>
+      <c r="E43" s="22">
+        <v>168.12921800000001</v>
+      </c>
+      <c r="F43" s="22">
+        <v>103.189262</v>
+      </c>
+      <c r="G43" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" s="21">
+        <v>83.752651999999998</v>
+      </c>
+      <c r="J43" s="22">
+        <v>209.24554000000001</v>
+      </c>
+      <c r="K43" s="22">
+        <v>291.16891199999998</v>
+      </c>
+      <c r="L43" s="22">
+        <v>167.72101699999999</v>
+      </c>
+      <c r="M43" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N43" s="23" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="44" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B44" s="38" t="s">
+      <c r="B44" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="C44" s="39"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="39"/>
-      <c r="J44" s="40"/>
-      <c r="K44" s="40"/>
-      <c r="L44" s="40"/>
-      <c r="M44" s="40"/>
-      <c r="N44" s="41"/>
+      <c r="C44" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="39">
+        <v>101.66007399999999</v>
+      </c>
+      <c r="E44" s="39">
+        <v>141.863011</v>
+      </c>
+      <c r="F44" s="39">
+        <v>97.341087000000002</v>
+      </c>
+      <c r="G44" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="I44" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44" s="39">
+        <v>204.38231400000001</v>
+      </c>
+      <c r="K44" s="39">
+        <v>277.90770300000003</v>
+      </c>
+      <c r="L44" s="39">
+        <v>203.409674</v>
+      </c>
+      <c r="M44" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="N44" s="40" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="45" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="29"/>
-      <c r="B45" s="30" t="s">
+      <c r="A45" s="28"/>
+      <c r="B45" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="31"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="32"/>
-      <c r="K45" s="32"/>
-      <c r="L45" s="32"/>
-      <c r="M45" s="32"/>
-      <c r="N45" s="33"/>
+      <c r="C45" s="30">
+        <v>52.616210000000002</v>
+      </c>
+      <c r="D45" s="31">
+        <v>107.857153</v>
+      </c>
+      <c r="E45" s="31">
+        <v>162.412826</v>
+      </c>
+      <c r="F45" s="31">
+        <v>119.882243</v>
+      </c>
+      <c r="G45" s="31">
+        <v>107.857153</v>
+      </c>
+      <c r="H45" s="32">
+        <v>120.00353800000001</v>
+      </c>
+      <c r="I45" s="30">
+        <v>97.911483000000004</v>
+      </c>
+      <c r="J45" s="31">
+        <v>219.38294999999999</v>
+      </c>
+      <c r="K45" s="31">
+        <v>284.49303300000003</v>
+      </c>
+      <c r="L45" s="31">
+        <v>202.789706</v>
+      </c>
+      <c r="M45" s="31">
+        <v>219.38294999999999</v>
+      </c>
+      <c r="N45" s="32">
+        <v>202.500328</v>
+      </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B46" s="42" t="s">
+      <c r="B46" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="43"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="44"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="43"/>
-      <c r="J46" s="44"/>
-      <c r="K46" s="44"/>
-      <c r="L46" s="44"/>
-      <c r="M46" s="44"/>
-      <c r="N46" s="45"/>
+      <c r="C46" s="42">
+        <v>146.36878899999999</v>
+      </c>
+      <c r="D46" s="43">
+        <v>152.12227200000001</v>
+      </c>
+      <c r="E46" s="43">
+        <v>189.189953</v>
+      </c>
+      <c r="F46" s="43">
+        <v>226.83826500000001</v>
+      </c>
+      <c r="G46" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" s="42">
+        <v>411.36628999999999</v>
+      </c>
+      <c r="J46" s="43">
+        <v>425.77086800000001</v>
+      </c>
+      <c r="K46" s="43">
+        <v>432.19358099999999</v>
+      </c>
+      <c r="L46" s="43">
+        <v>366.15725300000003</v>
+      </c>
+      <c r="M46" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="N46" s="44" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="C47" s="20"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
-      <c r="M47" s="21"/>
-      <c r="N47" s="22"/>
+      <c r="C47" s="21">
+        <v>73.623061000000007</v>
+      </c>
+      <c r="D47" s="22">
+        <v>78.419224999999997</v>
+      </c>
+      <c r="E47" s="22">
+        <v>139.60121599999999</v>
+      </c>
+      <c r="F47" s="22">
+        <v>142.81452999999999</v>
+      </c>
+      <c r="G47" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47" s="21">
+        <v>181.96014299999999</v>
+      </c>
+      <c r="J47" s="22">
+        <v>195.06850600000001</v>
+      </c>
+      <c r="K47" s="22">
+        <v>213.04883799999999</v>
+      </c>
+      <c r="L47" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="M47" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N47" s="23" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B48" s="50" t="s">
+      <c r="B48" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="C48" s="35"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="36"/>
-      <c r="K48" s="36"/>
-      <c r="L48" s="36"/>
-      <c r="M48" s="36"/>
-      <c r="N48" s="37"/>
+      <c r="C48" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="35">
+        <v>253.44792000000001</v>
+      </c>
+      <c r="F48" s="35">
+        <v>149.49373199999999</v>
+      </c>
+      <c r="G48" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="K48" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="L48" s="35">
+        <v>196.49155400000001</v>
+      </c>
+      <c r="M48" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="N48" s="36" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="21"/>
-      <c r="M49" s="21"/>
-      <c r="N49" s="22"/>
+      <c r="C49" s="21">
+        <v>56.779057000000002</v>
+      </c>
+      <c r="D49" s="22">
+        <v>129.80596199999999</v>
+      </c>
+      <c r="E49" s="22">
+        <v>134.77090799999999</v>
+      </c>
+      <c r="F49" s="22">
+        <v>181.56114600000001</v>
+      </c>
+      <c r="G49" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I49" s="21">
+        <v>208.84993</v>
+      </c>
+      <c r="J49" s="22">
+        <v>350.60234500000001</v>
+      </c>
+      <c r="K49" s="22">
+        <v>332.094178</v>
+      </c>
+      <c r="L49" s="22">
+        <v>251.27221299999999</v>
+      </c>
+      <c r="M49" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N49" s="23" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B50" s="19" t="s">
+      <c r="B50" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="C50" s="20"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="21"/>
-      <c r="M50" s="21"/>
-      <c r="N50" s="22"/>
+      <c r="C50" s="21">
+        <v>119.708324</v>
+      </c>
+      <c r="D50" s="22">
+        <v>165.75878800000001</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" s="22">
+        <v>238.418339</v>
+      </c>
+      <c r="G50" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" s="21">
+        <v>295.38617599999998</v>
+      </c>
+      <c r="J50" s="22">
+        <v>295.38617599999998</v>
+      </c>
+      <c r="K50" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L50" s="22">
+        <v>386.09889600000002</v>
+      </c>
+      <c r="M50" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N50" s="23" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
@@ -2512,1139 +3648,2288 @@
       <c r="B51" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="C51" s="17"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="23"/>
-      <c r="M51" s="23"/>
-      <c r="N51" s="24"/>
+      <c r="C51" s="17">
+        <v>84.814919000000003</v>
+      </c>
+      <c r="D51" s="18">
+        <v>97.742948999999996</v>
+      </c>
+      <c r="E51" s="18">
+        <v>103.55313700000001</v>
+      </c>
+      <c r="F51" s="18">
+        <v>148.79541599999999</v>
+      </c>
+      <c r="G51" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I51" s="17">
+        <v>253.34278900000001</v>
+      </c>
+      <c r="J51" s="18">
+        <v>287.88594000000001</v>
+      </c>
+      <c r="K51" s="18">
+        <v>267.58324399999998</v>
+      </c>
+      <c r="L51" s="18">
+        <v>267.10061100000001</v>
+      </c>
+      <c r="M51" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="N51" s="19" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B52" s="19" t="s">
+      <c r="B52" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="C52" s="20"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="21"/>
-      <c r="M52" s="21"/>
-      <c r="N52" s="22"/>
+      <c r="C52" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G52" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I52" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J52" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="K52" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L52" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="M52" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N52" s="23" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="B53" s="19" t="s">
+      <c r="B53" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="C53" s="20"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="21"/>
-      <c r="L53" s="21"/>
-      <c r="M53" s="21"/>
-      <c r="N53" s="22"/>
+      <c r="C53" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G53" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I53" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J53" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="K53" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L53" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="M53" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N53" s="23" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B54" s="19" t="s">
+      <c r="B54" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="C54" s="20"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="21"/>
-      <c r="K54" s="21"/>
-      <c r="L54" s="21"/>
-      <c r="M54" s="21"/>
-      <c r="N54" s="22"/>
+      <c r="C54" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G54" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I54" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J54" s="22">
+        <v>745.84191599999997</v>
+      </c>
+      <c r="K54" s="22">
+        <v>521.96076900000003</v>
+      </c>
+      <c r="L54" s="22">
+        <v>314.36303299999997</v>
+      </c>
+      <c r="M54" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N54" s="23" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="B55" s="19" t="s">
+      <c r="B55" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="C55" s="20"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="21"/>
-      <c r="K55" s="21"/>
-      <c r="L55" s="21"/>
-      <c r="M55" s="21"/>
-      <c r="N55" s="22"/>
+      <c r="C55" s="21">
+        <v>48.228645</v>
+      </c>
+      <c r="D55" s="22">
+        <v>55.814427000000002</v>
+      </c>
+      <c r="E55" s="22">
+        <v>61.595202999999998</v>
+      </c>
+      <c r="F55" s="22">
+        <v>106.597887</v>
+      </c>
+      <c r="G55" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I55" s="21">
+        <v>168.265064</v>
+      </c>
+      <c r="J55" s="22">
+        <v>180.660179</v>
+      </c>
+      <c r="K55" s="22">
+        <v>211.93931599999999</v>
+      </c>
+      <c r="L55" s="22">
+        <v>639.982665</v>
+      </c>
+      <c r="M55" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N55" s="23" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="B56" s="19" t="s">
+      <c r="B56" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="C56" s="20"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="21"/>
-      <c r="K56" s="21"/>
-      <c r="L56" s="21"/>
-      <c r="M56" s="21"/>
-      <c r="N56" s="22"/>
+      <c r="C56" s="21">
+        <v>115.94846</v>
+      </c>
+      <c r="D56" s="22">
+        <v>127.014157</v>
+      </c>
+      <c r="E56" s="22">
+        <v>141.739283</v>
+      </c>
+      <c r="F56" s="22">
+        <v>227.57283699999999</v>
+      </c>
+      <c r="G56" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I56" s="21">
+        <v>254.190416</v>
+      </c>
+      <c r="J56" s="22">
+        <v>278.22522500000002</v>
+      </c>
+      <c r="K56" s="22">
+        <v>287.07620300000002</v>
+      </c>
+      <c r="L56" s="22">
+        <v>463.96284900000001</v>
+      </c>
+      <c r="M56" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N56" s="23" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="B57" s="19" t="s">
+      <c r="B57" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="C57" s="20"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="21"/>
-      <c r="K57" s="21"/>
-      <c r="L57" s="21"/>
-      <c r="M57" s="21"/>
-      <c r="N57" s="22"/>
+      <c r="C57" s="21">
+        <v>184.358328</v>
+      </c>
+      <c r="D57" s="22">
+        <v>165.35133400000001</v>
+      </c>
+      <c r="E57" s="22">
+        <v>206.19550000000001</v>
+      </c>
+      <c r="F57" s="22">
+        <v>199.99757700000001</v>
+      </c>
+      <c r="G57" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I57" s="21">
+        <v>324.748492</v>
+      </c>
+      <c r="J57" s="22">
+        <v>418.16561799999999</v>
+      </c>
+      <c r="K57" s="22">
+        <v>320.44871599999999</v>
+      </c>
+      <c r="L57" s="22">
+        <v>302.5487</v>
+      </c>
+      <c r="M57" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N57" s="23" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="B58" s="19" t="s">
+      <c r="B58" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="C58" s="20"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="20"/>
-      <c r="J58" s="21"/>
-      <c r="K58" s="21"/>
-      <c r="L58" s="21"/>
-      <c r="M58" s="21"/>
-      <c r="N58" s="22"/>
+      <c r="C58" s="21">
+        <v>61.491664</v>
+      </c>
+      <c r="D58" s="22">
+        <v>109.902086</v>
+      </c>
+      <c r="E58" s="22">
+        <v>130.86031299999999</v>
+      </c>
+      <c r="F58" s="22">
+        <v>173.43494899999999</v>
+      </c>
+      <c r="G58" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I58" s="21">
+        <v>174.50085300000001</v>
+      </c>
+      <c r="J58" s="22">
+        <v>274.25336299999998</v>
+      </c>
+      <c r="K58" s="22">
+        <v>293.39238</v>
+      </c>
+      <c r="L58" s="22">
+        <v>267.13251100000002</v>
+      </c>
+      <c r="M58" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N58" s="23" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="B59" s="19" t="s">
+      <c r="B59" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="C59" s="20"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="21"/>
-      <c r="K59" s="21"/>
-      <c r="L59" s="21"/>
-      <c r="M59" s="21"/>
-      <c r="N59" s="22"/>
+      <c r="C59" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="22">
+        <v>122.92077</v>
+      </c>
+      <c r="E59" s="22">
+        <v>167.13112100000001</v>
+      </c>
+      <c r="F59" s="22">
+        <v>182.358498</v>
+      </c>
+      <c r="G59" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I59" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J59" s="22">
+        <v>468.17762599999998</v>
+      </c>
+      <c r="K59" s="22">
+        <v>450.42679800000002</v>
+      </c>
+      <c r="L59" s="22">
+        <v>490.41874000000001</v>
+      </c>
+      <c r="M59" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="N59" s="23" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="B60" s="25" t="s">
+      <c r="B60" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="C60" s="26"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="26"/>
-      <c r="J60" s="27"/>
-      <c r="K60" s="27"/>
-      <c r="L60" s="27"/>
-      <c r="M60" s="27"/>
-      <c r="N60" s="28"/>
+      <c r="C60" s="25">
+        <v>91.465549999999993</v>
+      </c>
+      <c r="D60" s="26">
+        <v>120.80953100000001</v>
+      </c>
+      <c r="E60" s="26">
+        <v>147.40705299999999</v>
+      </c>
+      <c r="F60" s="26">
+        <v>232.11935299999999</v>
+      </c>
+      <c r="G60" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I60" s="25">
+        <v>352.10710899999998</v>
+      </c>
+      <c r="J60" s="26">
+        <v>382.84567299999998</v>
+      </c>
+      <c r="K60" s="26">
+        <v>376.48676799999998</v>
+      </c>
+      <c r="L60" s="26">
+        <v>384.807954</v>
+      </c>
+      <c r="M60" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="N60" s="27" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="29"/>
-      <c r="B61" s="30" t="s">
+      <c r="A61" s="28"/>
+      <c r="B61" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="C61" s="31"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="32"/>
-      <c r="G61" s="32"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="32"/>
-      <c r="K61" s="32"/>
-      <c r="L61" s="32"/>
-      <c r="M61" s="32"/>
-      <c r="N61" s="33"/>
+      <c r="C61" s="30">
+        <v>99.656113000000005</v>
+      </c>
+      <c r="D61" s="31">
+        <v>120.84629200000001</v>
+      </c>
+      <c r="E61" s="31">
+        <v>155.90313</v>
+      </c>
+      <c r="F61" s="31">
+        <v>183.970731</v>
+      </c>
+      <c r="G61" s="31">
+        <v>120.84629200000001</v>
+      </c>
+      <c r="H61" s="32">
+        <v>189.076292</v>
+      </c>
+      <c r="I61" s="30">
+        <v>248.26854</v>
+      </c>
+      <c r="J61" s="31">
+        <v>313.70445699999999</v>
+      </c>
+      <c r="K61" s="31">
+        <v>303.00484599999999</v>
+      </c>
+      <c r="L61" s="31">
+        <v>314.94431200000002</v>
+      </c>
+      <c r="M61" s="31">
+        <v>313.70445699999999</v>
+      </c>
+      <c r="N61" s="32">
+        <v>315.03725400000002</v>
+      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="51"/>
-      <c r="B62" s="52" t="s">
+      <c r="A62" s="50"/>
+      <c r="B62" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="C62" s="53"/>
-      <c r="D62" s="54"/>
-      <c r="E62" s="54"/>
-      <c r="F62" s="54"/>
-      <c r="G62" s="54"/>
-      <c r="H62" s="55"/>
-      <c r="I62" s="53"/>
-      <c r="J62" s="54"/>
-      <c r="K62" s="54"/>
-      <c r="L62" s="54"/>
-      <c r="M62" s="54"/>
-      <c r="N62" s="55"/>
+      <c r="C62" s="52">
+        <v>64.746506999999994</v>
+      </c>
+      <c r="D62" s="53">
+        <v>79.986716999999999</v>
+      </c>
+      <c r="E62" s="53">
+        <v>118.27505499999999</v>
+      </c>
+      <c r="F62" s="53">
+        <v>147.01891599999999</v>
+      </c>
+      <c r="G62" s="53">
+        <v>118.27505499999999</v>
+      </c>
+      <c r="H62" s="54">
+        <v>151.45425599999999</v>
+      </c>
+      <c r="I62" s="52">
+        <v>135.03549599999999</v>
+      </c>
+      <c r="J62" s="53">
+        <v>143.64951600000001</v>
+      </c>
+      <c r="K62" s="53">
+        <v>205.20731499999999</v>
+      </c>
+      <c r="L62" s="53">
+        <v>250.74732700000001</v>
+      </c>
+      <c r="M62" s="53">
+        <v>205.20731499999999</v>
+      </c>
+      <c r="N62" s="54">
+        <v>258.10655800000001</v>
+      </c>
     </row>
     <row r="63" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="51"/>
-      <c r="B63" s="52" t="s">
+      <c r="A63" s="50"/>
+      <c r="B63" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="C63" s="53"/>
-      <c r="D63" s="54"/>
-      <c r="E63" s="54"/>
-      <c r="F63" s="54"/>
-      <c r="G63" s="54"/>
-      <c r="H63" s="55"/>
-      <c r="I63" s="53"/>
-      <c r="J63" s="54"/>
-      <c r="K63" s="54"/>
-      <c r="L63" s="54"/>
-      <c r="M63" s="54"/>
-      <c r="N63" s="55"/>
+      <c r="C63" s="52">
+        <v>41.903945999999998</v>
+      </c>
+      <c r="D63" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" s="53">
+        <v>62.784697000000001</v>
+      </c>
+      <c r="F63" s="53">
+        <v>80.851292999999998</v>
+      </c>
+      <c r="G63" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="H63" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="I63" s="52">
+        <v>71.843781000000007</v>
+      </c>
+      <c r="J63" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="K63" s="53">
+        <v>117.093542</v>
+      </c>
+      <c r="L63" s="53">
+        <v>145.11843999999999</v>
+      </c>
+      <c r="M63" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="N63" s="54" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="56"/>
-      <c r="B64" s="57" t="s">
+      <c r="A64" s="55"/>
+      <c r="B64" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="C64" s="58"/>
-      <c r="D64" s="59"/>
-      <c r="E64" s="59"/>
-      <c r="F64" s="59"/>
-      <c r="G64" s="59"/>
-      <c r="H64" s="60"/>
-      <c r="I64" s="58"/>
-      <c r="J64" s="59"/>
-      <c r="K64" s="59"/>
-      <c r="L64" s="59"/>
-      <c r="M64" s="59"/>
-      <c r="N64" s="60"/>
+      <c r="C64" s="57">
+        <v>41.007192000000003</v>
+      </c>
+      <c r="D64" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64" s="58">
+        <v>50.379161000000003</v>
+      </c>
+      <c r="F64" s="58">
+        <v>90.040324999999996</v>
+      </c>
+      <c r="G64" s="58">
+        <v>99.513197000000005</v>
+      </c>
+      <c r="H64" s="59">
+        <v>88.566715000000002</v>
+      </c>
+      <c r="I64" s="57">
+        <v>58.243206999999998</v>
+      </c>
+      <c r="J64" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="K64" s="58">
+        <v>71.852728999999997</v>
+      </c>
+      <c r="L64" s="58">
+        <v>142.824995</v>
+      </c>
+      <c r="M64" s="58">
+        <v>169.09670199999999</v>
+      </c>
+      <c r="N64" s="59">
+        <v>138.68440899999999</v>
+      </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="56"/>
-      <c r="B65" s="61" t="s">
+      <c r="A65" s="55"/>
+      <c r="B65" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="C65" s="62"/>
-      <c r="D65" s="63"/>
-      <c r="E65" s="63"/>
-      <c r="F65" s="63"/>
-      <c r="G65" s="63"/>
-      <c r="H65" s="64"/>
-      <c r="I65" s="62"/>
-      <c r="J65" s="63"/>
-      <c r="K65" s="63"/>
-      <c r="L65" s="63"/>
-      <c r="M65" s="63"/>
-      <c r="N65" s="64"/>
+      <c r="C65" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" s="62">
+        <v>84.004585000000006</v>
+      </c>
+      <c r="F65" s="62">
+        <v>92.182308000000006</v>
+      </c>
+      <c r="G65" s="62">
+        <v>81.905989000000005</v>
+      </c>
+      <c r="H65" s="63">
+        <v>95.147707999999994</v>
+      </c>
+      <c r="I65" s="61">
+        <v>140.565955</v>
+      </c>
+      <c r="J65" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="K65" s="62">
+        <v>162.14974900000001</v>
+      </c>
+      <c r="L65" s="62">
+        <v>172.84247199999999</v>
+      </c>
+      <c r="M65" s="62">
+        <v>146.92626200000001</v>
+      </c>
+      <c r="N65" s="63">
+        <v>182.36218299999999</v>
+      </c>
     </row>
     <row r="66" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="56"/>
-      <c r="B66" s="65" t="s">
+      <c r="A66" s="55"/>
+      <c r="B66" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="C66" s="66"/>
-      <c r="D66" s="67"/>
-      <c r="E66" s="67"/>
-      <c r="F66" s="67"/>
-      <c r="G66" s="67"/>
-      <c r="H66" s="68"/>
-      <c r="I66" s="66"/>
-      <c r="J66" s="67"/>
-      <c r="K66" s="67"/>
-      <c r="L66" s="67"/>
-      <c r="M66" s="67"/>
-      <c r="N66" s="68"/>
+      <c r="C66" s="65">
+        <v>42.213144</v>
+      </c>
+      <c r="D66" s="66">
+        <v>79.986716999999999</v>
+      </c>
+      <c r="E66" s="66">
+        <v>63.237597999999998</v>
+      </c>
+      <c r="F66" s="66">
+        <v>82.983581999999998</v>
+      </c>
+      <c r="G66" s="66">
+        <v>82.928308000000001</v>
+      </c>
+      <c r="H66" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="I66" s="65">
+        <v>72.659698000000006</v>
+      </c>
+      <c r="J66" s="66">
+        <v>143.64951600000001</v>
+      </c>
+      <c r="K66" s="66">
+        <v>117.75094799999999</v>
+      </c>
+      <c r="L66" s="66">
+        <v>148.24481800000001</v>
+      </c>
+      <c r="M66" s="66">
+        <v>148.22947199999999</v>
+      </c>
+      <c r="N66" s="67" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="56"/>
-      <c r="B67" s="61" t="s">
+      <c r="A67" s="55"/>
+      <c r="B67" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="C67" s="62"/>
-      <c r="D67" s="63"/>
-      <c r="E67" s="63"/>
-      <c r="F67" s="63"/>
-      <c r="G67" s="63"/>
-      <c r="H67" s="64"/>
-      <c r="I67" s="62"/>
-      <c r="J67" s="63"/>
-      <c r="K67" s="63"/>
-      <c r="L67" s="63"/>
-      <c r="M67" s="63"/>
-      <c r="N67" s="64"/>
+      <c r="C67" s="61">
+        <v>82.115178</v>
+      </c>
+      <c r="D67" s="62">
+        <v>88.761748999999995</v>
+      </c>
+      <c r="E67" s="62">
+        <v>134.91850299999999</v>
+      </c>
+      <c r="F67" s="62">
+        <v>154.82343900000001</v>
+      </c>
+      <c r="G67" s="62">
+        <v>162.39444900000001</v>
+      </c>
+      <c r="H67" s="63">
+        <v>154.31589099999999</v>
+      </c>
+      <c r="I67" s="61">
+        <v>191.20976899999999</v>
+      </c>
+      <c r="J67" s="62">
+        <v>136.12485799999999</v>
+      </c>
+      <c r="K67" s="62">
+        <v>236.419208</v>
+      </c>
+      <c r="L67" s="62">
+        <v>243.426401</v>
+      </c>
+      <c r="M67" s="62">
+        <v>281.41247099999998</v>
+      </c>
+      <c r="N67" s="63">
+        <v>241.01204000000001</v>
+      </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="56"/>
-      <c r="B68" s="61" t="s">
+      <c r="A68" s="55"/>
+      <c r="B68" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="C68" s="62"/>
-      <c r="D68" s="63"/>
-      <c r="E68" s="63"/>
-      <c r="F68" s="63"/>
-      <c r="G68" s="63"/>
-      <c r="H68" s="64"/>
-      <c r="I68" s="62"/>
-      <c r="J68" s="63"/>
-      <c r="K68" s="63"/>
-      <c r="L68" s="63"/>
-      <c r="M68" s="63"/>
-      <c r="N68" s="64"/>
+      <c r="C68" s="61">
+        <v>67.640620999999996</v>
+      </c>
+      <c r="D68" s="62">
+        <v>120.024447</v>
+      </c>
+      <c r="E68" s="62">
+        <v>160.15155899999999</v>
+      </c>
+      <c r="F68" s="62">
+        <v>152.107766</v>
+      </c>
+      <c r="G68" s="62">
+        <v>138.85761299999999</v>
+      </c>
+      <c r="H68" s="63">
+        <v>152.81138100000001</v>
+      </c>
+      <c r="I68" s="61">
+        <v>141.757532</v>
+      </c>
+      <c r="J68" s="62">
+        <v>290.71937700000001</v>
+      </c>
+      <c r="K68" s="62">
+        <v>294.91854999999998</v>
+      </c>
+      <c r="L68" s="62">
+        <v>245.856786</v>
+      </c>
+      <c r="M68" s="62">
+        <v>293.07355899999999</v>
+      </c>
+      <c r="N68" s="63">
+        <v>243.23670000000001</v>
+      </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="56"/>
-      <c r="B69" s="61" t="s">
+      <c r="A69" s="55"/>
+      <c r="B69" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="C69" s="62"/>
-      <c r="D69" s="63"/>
-      <c r="E69" s="63"/>
-      <c r="F69" s="63"/>
-      <c r="G69" s="63"/>
-      <c r="H69" s="64"/>
-      <c r="I69" s="62"/>
-      <c r="J69" s="63"/>
-      <c r="K69" s="63"/>
-      <c r="L69" s="63"/>
-      <c r="M69" s="63"/>
-      <c r="N69" s="64"/>
+      <c r="C69" s="61">
+        <v>87.090728999999996</v>
+      </c>
+      <c r="D69" s="62">
+        <v>97.144840000000002</v>
+      </c>
+      <c r="E69" s="62">
+        <v>128.29189600000001</v>
+      </c>
+      <c r="F69" s="62">
+        <v>174.38293899999999</v>
+      </c>
+      <c r="G69" s="62">
+        <v>93.967853000000005</v>
+      </c>
+      <c r="H69" s="63">
+        <v>184.80134899999999</v>
+      </c>
+      <c r="I69" s="61">
+        <v>193.75993</v>
+      </c>
+      <c r="J69" s="62">
+        <v>167.60203799999999</v>
+      </c>
+      <c r="K69" s="62">
+        <v>221.281486</v>
+      </c>
+      <c r="L69" s="62">
+        <v>273.54250300000001</v>
+      </c>
+      <c r="M69" s="62">
+        <v>158.49548100000001</v>
+      </c>
+      <c r="N69" s="63">
+        <v>288.92095999999998</v>
+      </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="56"/>
-      <c r="B70" s="61" t="s">
+      <c r="A70" s="55"/>
+      <c r="B70" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="C70" s="62"/>
-      <c r="D70" s="63"/>
-      <c r="E70" s="63"/>
-      <c r="F70" s="63"/>
-      <c r="G70" s="63"/>
-      <c r="H70" s="64"/>
-      <c r="I70" s="62"/>
-      <c r="J70" s="63"/>
-      <c r="K70" s="63"/>
-      <c r="L70" s="63"/>
-      <c r="M70" s="63"/>
-      <c r="N70" s="64"/>
+      <c r="C70" s="61">
+        <v>121.241238</v>
+      </c>
+      <c r="D70" s="62">
+        <v>154.77800400000001</v>
+      </c>
+      <c r="E70" s="62">
+        <v>143.997017</v>
+      </c>
+      <c r="F70" s="62">
+        <v>186.524565</v>
+      </c>
+      <c r="G70" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70" s="63">
+        <v>186.824443</v>
+      </c>
+      <c r="I70" s="61">
+        <v>358.61626799999999</v>
+      </c>
+      <c r="J70" s="62">
+        <v>273.50879500000002</v>
+      </c>
+      <c r="K70" s="62">
+        <v>366.00259299999999</v>
+      </c>
+      <c r="L70" s="62">
+        <v>403.080916</v>
+      </c>
+      <c r="M70" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="N70" s="63">
+        <v>403.14083599999998</v>
+      </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="56"/>
-      <c r="B71" s="61" t="s">
+      <c r="A71" s="55"/>
+      <c r="B71" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="C71" s="62"/>
-      <c r="D71" s="63"/>
-      <c r="E71" s="63"/>
-      <c r="F71" s="63"/>
-      <c r="G71" s="63"/>
-      <c r="H71" s="64"/>
-      <c r="I71" s="62"/>
-      <c r="J71" s="63"/>
-      <c r="K71" s="63"/>
-      <c r="L71" s="63"/>
-      <c r="M71" s="63"/>
-      <c r="N71" s="64"/>
+      <c r="C71" s="61">
+        <v>99.656113000000005</v>
+      </c>
+      <c r="D71" s="62">
+        <v>120.84629200000001</v>
+      </c>
+      <c r="E71" s="62">
+        <v>155.90313</v>
+      </c>
+      <c r="F71" s="62">
+        <v>183.970731</v>
+      </c>
+      <c r="G71" s="62">
+        <v>120.84629200000001</v>
+      </c>
+      <c r="H71" s="63">
+        <v>189.076292</v>
+      </c>
+      <c r="I71" s="61">
+        <v>248.26854</v>
+      </c>
+      <c r="J71" s="62">
+        <v>313.70445699999999</v>
+      </c>
+      <c r="K71" s="62">
+        <v>303.00484599999999</v>
+      </c>
+      <c r="L71" s="62">
+        <v>314.94431200000002</v>
+      </c>
+      <c r="M71" s="62">
+        <v>313.70445699999999</v>
+      </c>
+      <c r="N71" s="63">
+        <v>315.03725400000002</v>
+      </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="56"/>
-      <c r="B72" s="61" t="s">
+      <c r="A72" s="55"/>
+      <c r="B72" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="C72" s="62"/>
-      <c r="D72" s="63"/>
-      <c r="E72" s="63"/>
-      <c r="F72" s="63"/>
-      <c r="G72" s="63"/>
-      <c r="H72" s="64"/>
-      <c r="I72" s="62"/>
-      <c r="J72" s="63"/>
-      <c r="K72" s="63"/>
-      <c r="L72" s="63"/>
-      <c r="M72" s="63"/>
-      <c r="N72" s="64"/>
+      <c r="C72" s="61">
+        <v>93.157685000000001</v>
+      </c>
+      <c r="D72" s="62">
+        <v>101.734222</v>
+      </c>
+      <c r="E72" s="62">
+        <v>149.90141</v>
+      </c>
+      <c r="F72" s="62">
+        <v>184.75738699999999</v>
+      </c>
+      <c r="G72" s="62">
+        <v>98.854190000000003</v>
+      </c>
+      <c r="H72" s="63">
+        <v>189.657892</v>
+      </c>
+      <c r="I72" s="61">
+        <v>150.26072500000001</v>
+      </c>
+      <c r="J72" s="62">
+        <v>163.77955900000001</v>
+      </c>
+      <c r="K72" s="62">
+        <v>218.61489900000001</v>
+      </c>
+      <c r="L72" s="62">
+        <v>260.474895</v>
+      </c>
+      <c r="M72" s="62">
+        <v>140.98342400000001</v>
+      </c>
+      <c r="N72" s="63">
+        <v>267.43481400000002</v>
+      </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="56"/>
-      <c r="B73" s="61" t="s">
+      <c r="A73" s="55"/>
+      <c r="B73" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="C73" s="62"/>
-      <c r="D73" s="63"/>
-      <c r="E73" s="63"/>
-      <c r="F73" s="63"/>
-      <c r="G73" s="63"/>
-      <c r="H73" s="64"/>
-      <c r="I73" s="62"/>
-      <c r="J73" s="63"/>
-      <c r="K73" s="63"/>
-      <c r="L73" s="63"/>
-      <c r="M73" s="63"/>
-      <c r="N73" s="64"/>
+      <c r="C73" s="61">
+        <v>56.529198000000001</v>
+      </c>
+      <c r="D73" s="62">
+        <v>60.258975</v>
+      </c>
+      <c r="E73" s="62">
+        <v>89.366760999999997</v>
+      </c>
+      <c r="F73" s="62">
+        <v>133.16828599999999</v>
+      </c>
+      <c r="G73" s="62">
+        <v>69.749477999999996</v>
+      </c>
+      <c r="H73" s="63">
+        <v>147.57833299999999</v>
+      </c>
+      <c r="I73" s="61">
+        <v>123.676044</v>
+      </c>
+      <c r="J73" s="62">
+        <v>93.722476</v>
+      </c>
+      <c r="K73" s="62">
+        <v>162.72625199999999</v>
+      </c>
+      <c r="L73" s="62">
+        <v>246.59186399999999</v>
+      </c>
+      <c r="M73" s="62">
+        <v>146.92435699999999</v>
+      </c>
+      <c r="N73" s="63">
+        <v>272.60654799999998</v>
+      </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="56"/>
-      <c r="B74" s="61" t="s">
+      <c r="A74" s="55"/>
+      <c r="B74" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="C74" s="62"/>
-      <c r="D74" s="63"/>
-      <c r="E74" s="63"/>
-      <c r="F74" s="63"/>
-      <c r="G74" s="63"/>
-      <c r="H74" s="64"/>
-      <c r="I74" s="62"/>
-      <c r="J74" s="63"/>
-      <c r="K74" s="63"/>
-      <c r="L74" s="63"/>
-      <c r="M74" s="63"/>
-      <c r="N74" s="64"/>
+      <c r="C74" s="61">
+        <v>46.043653999999997</v>
+      </c>
+      <c r="D74" s="62">
+        <v>105.70472599999999</v>
+      </c>
+      <c r="E74" s="62">
+        <v>149.482574</v>
+      </c>
+      <c r="F74" s="62">
+        <v>106.376099</v>
+      </c>
+      <c r="G74" s="62">
+        <v>100.113421</v>
+      </c>
+      <c r="H74" s="63">
+        <v>106.446263</v>
+      </c>
+      <c r="I74" s="61">
+        <v>91.674170000000004</v>
+      </c>
+      <c r="J74" s="62">
+        <v>218.81071499999999</v>
+      </c>
+      <c r="K74" s="62">
+        <v>285.16743500000001</v>
+      </c>
+      <c r="L74" s="62">
+        <v>211.812354</v>
+      </c>
+      <c r="M74" s="62">
+        <v>217.673666</v>
+      </c>
+      <c r="N74" s="63">
+        <v>211.71930800000001</v>
+      </c>
     </row>
     <row r="75" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="56"/>
-      <c r="B75" s="61" t="s">
+      <c r="A75" s="55"/>
+      <c r="B75" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="C75" s="69"/>
-      <c r="D75" s="70"/>
-      <c r="E75" s="70"/>
-      <c r="F75" s="70"/>
-      <c r="G75" s="70"/>
-      <c r="H75" s="71"/>
-      <c r="I75" s="69"/>
-      <c r="J75" s="70"/>
-      <c r="K75" s="70"/>
-      <c r="L75" s="70"/>
-      <c r="M75" s="70"/>
-      <c r="N75" s="71"/>
+      <c r="C75" s="68">
+        <v>66.891931999999997</v>
+      </c>
+      <c r="D75" s="69">
+        <v>75.204235999999995</v>
+      </c>
+      <c r="E75" s="69">
+        <v>95.093243999999999</v>
+      </c>
+      <c r="F75" s="69">
+        <v>173.68035499999999</v>
+      </c>
+      <c r="G75" s="69">
+        <v>195.98672099999999</v>
+      </c>
+      <c r="H75" s="70">
+        <v>173.67419799999999</v>
+      </c>
+      <c r="I75" s="68">
+        <v>104.104388</v>
+      </c>
+      <c r="J75" s="69">
+        <v>110.008336</v>
+      </c>
+      <c r="K75" s="69">
+        <v>122.379615</v>
+      </c>
+      <c r="L75" s="69">
+        <v>438.86334099999999</v>
+      </c>
+      <c r="M75" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="N75" s="70">
+        <v>438.86334099999999</v>
+      </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="56"/>
-      <c r="B76" s="72" t="s">
+      <c r="A76" s="55"/>
+      <c r="B76" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="C76" s="73"/>
-      <c r="D76" s="74"/>
-      <c r="E76" s="74"/>
-      <c r="F76" s="74"/>
-      <c r="G76" s="74"/>
-      <c r="H76" s="75"/>
-      <c r="I76" s="73"/>
-      <c r="J76" s="74"/>
-      <c r="K76" s="74"/>
-      <c r="L76" s="74"/>
-      <c r="M76" s="74"/>
-      <c r="N76" s="75"/>
+      <c r="C76" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="E76" s="73">
+        <v>86.274083000000005</v>
+      </c>
+      <c r="F76" s="73">
+        <v>99.120231000000004</v>
+      </c>
+      <c r="G76" s="73">
+        <v>76.054899000000006</v>
+      </c>
+      <c r="H76" s="74">
+        <v>106.7328</v>
+      </c>
+      <c r="I76" s="72">
+        <v>109.046443</v>
+      </c>
+      <c r="J76" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="K76" s="73">
+        <v>149.84056200000001</v>
+      </c>
+      <c r="L76" s="73">
+        <v>164.64331999999999</v>
+      </c>
+      <c r="M76" s="73">
+        <v>138.137282</v>
+      </c>
+      <c r="N76" s="74">
+        <v>172.96059600000001</v>
+      </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="56"/>
-      <c r="B77" s="61" t="s">
+      <c r="A77" s="55"/>
+      <c r="B77" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="C77" s="62"/>
-      <c r="D77" s="63"/>
-      <c r="E77" s="63"/>
-      <c r="F77" s="63"/>
-      <c r="G77" s="63"/>
-      <c r="H77" s="64"/>
-      <c r="I77" s="62"/>
-      <c r="J77" s="63"/>
-      <c r="K77" s="63"/>
-      <c r="L77" s="63"/>
-      <c r="M77" s="63"/>
-      <c r="N77" s="64"/>
+      <c r="C77" s="61">
+        <v>85.915170000000003</v>
+      </c>
+      <c r="D77" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="E77" s="62">
+        <v>89.471048999999994</v>
+      </c>
+      <c r="F77" s="62">
+        <v>114.68550500000001</v>
+      </c>
+      <c r="G77" s="62">
+        <v>89.471048999999994</v>
+      </c>
+      <c r="H77" s="63">
+        <v>119.935025</v>
+      </c>
+      <c r="I77" s="61">
+        <v>123.539811</v>
+      </c>
+      <c r="J77" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="K77" s="62">
+        <v>127.42688699999999</v>
+      </c>
+      <c r="L77" s="62">
+        <v>169.42125799999999</v>
+      </c>
+      <c r="M77" s="62">
+        <v>127.42688699999999</v>
+      </c>
+      <c r="N77" s="63">
+        <v>178.18885800000001</v>
+      </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="56"/>
-      <c r="B78" s="61" t="s">
+      <c r="A78" s="55"/>
+      <c r="B78" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="C78" s="62"/>
-      <c r="D78" s="63"/>
-      <c r="E78" s="63"/>
-      <c r="F78" s="63"/>
-      <c r="G78" s="63"/>
-      <c r="H78" s="64"/>
-      <c r="I78" s="62"/>
-      <c r="J78" s="63"/>
-      <c r="K78" s="63"/>
-      <c r="L78" s="63"/>
-      <c r="M78" s="63"/>
-      <c r="N78" s="64"/>
+      <c r="C78" s="61">
+        <v>34.318731999999997</v>
+      </c>
+      <c r="D78" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="62">
+        <v>49.192967000000003</v>
+      </c>
+      <c r="F78" s="62">
+        <v>65.186240999999995</v>
+      </c>
+      <c r="G78" s="62">
+        <v>44.894029000000003</v>
+      </c>
+      <c r="H78" s="63">
+        <v>89.463194000000001</v>
+      </c>
+      <c r="I78" s="61">
+        <v>61.061143999999999</v>
+      </c>
+      <c r="J78" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="K78" s="62">
+        <v>88.272287000000006</v>
+      </c>
+      <c r="L78" s="62">
+        <v>119.05439699999999</v>
+      </c>
+      <c r="M78" s="62">
+        <v>79.614507000000003</v>
+      </c>
+      <c r="N78" s="63">
+        <v>174.84316000000001</v>
+      </c>
     </row>
     <row r="79" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="56"/>
-      <c r="B79" s="65" t="s">
+      <c r="A79" s="55"/>
+      <c r="B79" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="C79" s="66"/>
-      <c r="D79" s="67"/>
-      <c r="E79" s="67"/>
-      <c r="F79" s="67"/>
-      <c r="G79" s="67"/>
-      <c r="H79" s="68"/>
-      <c r="I79" s="66"/>
-      <c r="J79" s="67"/>
-      <c r="K79" s="67"/>
-      <c r="L79" s="67"/>
-      <c r="M79" s="67"/>
-      <c r="N79" s="68"/>
+      <c r="C79" s="65">
+        <v>33.485402999999998</v>
+      </c>
+      <c r="D79" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="66">
+        <v>50.598478</v>
+      </c>
+      <c r="F79" s="66">
+        <v>70.969100999999995</v>
+      </c>
+      <c r="G79" s="66">
+        <v>59.109920000000002</v>
+      </c>
+      <c r="H79" s="67">
+        <v>98.602787000000006</v>
+      </c>
+      <c r="I79" s="65">
+        <v>54.966093999999998</v>
+      </c>
+      <c r="J79" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="K79" s="66">
+        <v>92.830325999999999</v>
+      </c>
+      <c r="L79" s="66">
+        <v>126.726687</v>
+      </c>
+      <c r="M79" s="66">
+        <v>103.415812</v>
+      </c>
+      <c r="N79" s="67">
+        <v>182.56481700000001</v>
+      </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="56"/>
-      <c r="B80" s="72" t="s">
+      <c r="A80" s="55"/>
+      <c r="B80" s="71" t="s">
         <v>147</v>
       </c>
-      <c r="C80" s="73"/>
-      <c r="D80" s="74"/>
-      <c r="E80" s="74"/>
-      <c r="F80" s="74"/>
-      <c r="G80" s="74"/>
-      <c r="H80" s="75"/>
-      <c r="I80" s="73"/>
-      <c r="J80" s="74"/>
-      <c r="K80" s="74"/>
-      <c r="L80" s="74"/>
-      <c r="M80" s="74"/>
-      <c r="N80" s="75"/>
+      <c r="C80" s="72">
+        <v>154.85246799999999</v>
+      </c>
+      <c r="D80" s="73">
+        <v>145.325795</v>
+      </c>
+      <c r="E80" s="73">
+        <v>187.62483800000001</v>
+      </c>
+      <c r="F80" s="73">
+        <v>173.48766599999999</v>
+      </c>
+      <c r="G80" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="H80" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="I80" s="72">
+        <v>305.914761</v>
+      </c>
+      <c r="J80" s="73">
+        <v>354.12341700000002</v>
+      </c>
+      <c r="K80" s="73">
+        <v>315.72655099999997</v>
+      </c>
+      <c r="L80" s="73">
+        <v>337.40965799999998</v>
+      </c>
+      <c r="M80" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="N80" s="74" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="56"/>
-      <c r="B81" s="61" t="s">
+      <c r="A81" s="55"/>
+      <c r="B81" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="C81" s="62"/>
-      <c r="D81" s="63"/>
-      <c r="E81" s="63"/>
-      <c r="F81" s="63"/>
-      <c r="G81" s="63"/>
-      <c r="H81" s="64"/>
-      <c r="I81" s="62"/>
-      <c r="J81" s="63"/>
-      <c r="K81" s="63"/>
-      <c r="L81" s="63"/>
-      <c r="M81" s="63"/>
-      <c r="N81" s="64"/>
+      <c r="C81" s="61">
+        <v>68.916083999999998</v>
+      </c>
+      <c r="D81" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="E81" s="62">
+        <v>99.496176000000006</v>
+      </c>
+      <c r="F81" s="62">
+        <v>112.52044100000001</v>
+      </c>
+      <c r="G81" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="H81" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="I81" s="61">
+        <v>123.281989</v>
+      </c>
+      <c r="J81" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="K81" s="62">
+        <v>210.845572</v>
+      </c>
+      <c r="L81" s="62">
+        <v>217.45395099999999</v>
+      </c>
+      <c r="M81" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="N81" s="63" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="56"/>
-      <c r="B82" s="61" t="s">
+      <c r="A82" s="55"/>
+      <c r="B82" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="C82" s="62"/>
-      <c r="D82" s="63"/>
-      <c r="E82" s="63"/>
-      <c r="F82" s="63"/>
-      <c r="G82" s="63"/>
-      <c r="H82" s="64"/>
-      <c r="I82" s="62"/>
-      <c r="J82" s="63"/>
-      <c r="K82" s="63"/>
-      <c r="L82" s="63"/>
-      <c r="M82" s="63"/>
-      <c r="N82" s="64"/>
+      <c r="C82" s="61">
+        <v>61.580475999999997</v>
+      </c>
+      <c r="D82" s="62">
+        <v>74.883527999999998</v>
+      </c>
+      <c r="E82" s="62">
+        <v>110.04916</v>
+      </c>
+      <c r="F82" s="62">
+        <v>139.55058299999999</v>
+      </c>
+      <c r="G82" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="H82" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="I82" s="61">
+        <v>129.53201000000001</v>
+      </c>
+      <c r="J82" s="62">
+        <v>132.95737800000001</v>
+      </c>
+      <c r="K82" s="62">
+        <v>195.97070099999999</v>
+      </c>
+      <c r="L82" s="62">
+        <v>228.17194799999999</v>
+      </c>
+      <c r="M82" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="N82" s="63" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="83" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="56"/>
-      <c r="B83" s="65" t="s">
+      <c r="A83" s="55"/>
+      <c r="B83" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="C83" s="66"/>
-      <c r="D83" s="67"/>
-      <c r="E83" s="67"/>
-      <c r="F83" s="67"/>
-      <c r="G83" s="67"/>
-      <c r="H83" s="68"/>
-      <c r="I83" s="66"/>
-      <c r="J83" s="67"/>
-      <c r="K83" s="67"/>
-      <c r="L83" s="67"/>
-      <c r="M83" s="67"/>
-      <c r="N83" s="68"/>
+      <c r="C83" s="65">
+        <v>39.990015</v>
+      </c>
+      <c r="D83" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E83" s="66">
+        <v>59.951171000000002</v>
+      </c>
+      <c r="F83" s="66">
+        <v>78.657715999999994</v>
+      </c>
+      <c r="G83" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H83" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="I83" s="65">
+        <v>68.682338999999999</v>
+      </c>
+      <c r="J83" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="K83" s="66">
+        <v>110.885729</v>
+      </c>
+      <c r="L83" s="66">
+        <v>140.66792599999999</v>
+      </c>
+      <c r="M83" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="N83" s="67" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" s="56"/>
-      <c r="B84" s="72" t="s">
+      <c r="A84" s="55"/>
+      <c r="B84" s="71" t="s">
         <v>151</v>
       </c>
-      <c r="C84" s="73"/>
-      <c r="D84" s="74"/>
-      <c r="E84" s="74"/>
-      <c r="F84" s="74"/>
-      <c r="G84" s="74"/>
-      <c r="H84" s="75"/>
-      <c r="I84" s="73"/>
-      <c r="J84" s="74"/>
-      <c r="K84" s="74"/>
-      <c r="L84" s="74"/>
-      <c r="M84" s="74"/>
-      <c r="N84" s="75"/>
+      <c r="C84" s="72">
+        <v>81.146351999999993</v>
+      </c>
+      <c r="D84" s="73">
+        <v>93.357259999999997</v>
+      </c>
+      <c r="E84" s="73">
+        <v>128.14365900000001</v>
+      </c>
+      <c r="F84" s="73">
+        <v>177.688872</v>
+      </c>
+      <c r="G84" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="H84" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="I84" s="72">
+        <v>203.381055</v>
+      </c>
+      <c r="J84" s="73">
+        <v>172.70882399999999</v>
+      </c>
+      <c r="K84" s="73">
+        <v>255.49001699999999</v>
+      </c>
+      <c r="L84" s="73">
+        <v>327.95534500000002</v>
+      </c>
+      <c r="M84" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="N84" s="74" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" s="56"/>
-      <c r="B85" s="76" t="s">
+      <c r="A85" s="55"/>
+      <c r="B85" s="75" t="s">
         <v>152</v>
       </c>
-      <c r="C85" s="62"/>
-      <c r="D85" s="63"/>
-      <c r="E85" s="63"/>
-      <c r="F85" s="63"/>
-      <c r="G85" s="63"/>
-      <c r="H85" s="64"/>
-      <c r="I85" s="62"/>
-      <c r="J85" s="63"/>
-      <c r="K85" s="63"/>
-      <c r="L85" s="63"/>
-      <c r="M85" s="63"/>
-      <c r="N85" s="64"/>
+      <c r="C85" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="E85" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="F85" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="G85" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="H85" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="I85" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="J85" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="K85" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="L85" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="M85" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="N85" s="63" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86" s="56"/>
-      <c r="B86" s="61" t="s">
+      <c r="A86" s="55"/>
+      <c r="B86" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="C86" s="62"/>
-      <c r="D86" s="63"/>
-      <c r="E86" s="63"/>
-      <c r="F86" s="63"/>
-      <c r="G86" s="63"/>
-      <c r="H86" s="64"/>
-      <c r="I86" s="62"/>
-      <c r="J86" s="63"/>
-      <c r="K86" s="63"/>
-      <c r="L86" s="63"/>
-      <c r="M86" s="63"/>
-      <c r="N86" s="64"/>
+      <c r="C86" s="61">
+        <v>69.632504999999995</v>
+      </c>
+      <c r="D86" s="62">
+        <v>101.22733700000001</v>
+      </c>
+      <c r="E86" s="62">
+        <v>141.057052</v>
+      </c>
+      <c r="F86" s="62">
+        <v>151.15547599999999</v>
+      </c>
+      <c r="G86" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="H86" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="I86" s="61">
+        <v>151.175839</v>
+      </c>
+      <c r="J86" s="62">
+        <v>199.309774</v>
+      </c>
+      <c r="K86" s="62">
+        <v>248.85671500000001</v>
+      </c>
+      <c r="L86" s="62">
+        <v>260.65104600000001</v>
+      </c>
+      <c r="M86" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="N86" s="63" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" s="56"/>
-      <c r="B87" s="61" t="s">
+      <c r="A87" s="55"/>
+      <c r="B87" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="C87" s="62"/>
-      <c r="D87" s="63"/>
-      <c r="E87" s="63"/>
-      <c r="F87" s="63"/>
-      <c r="G87" s="63"/>
-      <c r="H87" s="64"/>
-      <c r="I87" s="62"/>
-      <c r="J87" s="63"/>
-      <c r="K87" s="63"/>
-      <c r="L87" s="63"/>
-      <c r="M87" s="63"/>
-      <c r="N87" s="64"/>
+      <c r="C87" s="61">
+        <v>88.356634999999997</v>
+      </c>
+      <c r="D87" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="E87" s="62">
+        <v>97.297608999999994</v>
+      </c>
+      <c r="F87" s="62">
+        <v>111.148338</v>
+      </c>
+      <c r="G87" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="H87" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="I87" s="61">
+        <v>140.245418</v>
+      </c>
+      <c r="J87" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="K87" s="62">
+        <v>164.88199800000001</v>
+      </c>
+      <c r="L87" s="62">
+        <v>182.43234000000001</v>
+      </c>
+      <c r="M87" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="N87" s="63" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" s="56"/>
-      <c r="B88" s="61" t="s">
+      <c r="A88" s="55"/>
+      <c r="B88" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="C88" s="62"/>
-      <c r="D88" s="63"/>
-      <c r="E88" s="63"/>
-      <c r="F88" s="63"/>
-      <c r="G88" s="63"/>
-      <c r="H88" s="64"/>
-      <c r="I88" s="62"/>
-      <c r="J88" s="63"/>
-      <c r="K88" s="63"/>
-      <c r="L88" s="63"/>
-      <c r="M88" s="63"/>
-      <c r="N88" s="64"/>
+      <c r="C88" s="61">
+        <v>50.046408</v>
+      </c>
+      <c r="D88" s="62">
+        <v>54.348376999999999</v>
+      </c>
+      <c r="E88" s="62">
+        <v>84.994720000000001</v>
+      </c>
+      <c r="F88" s="62">
+        <v>115.045937</v>
+      </c>
+      <c r="G88" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="H88" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="I88" s="61">
+        <v>76.655924999999996</v>
+      </c>
+      <c r="J88" s="62">
+        <v>83.112836000000001</v>
+      </c>
+      <c r="K88" s="62">
+        <v>126.767884</v>
+      </c>
+      <c r="L88" s="62">
+        <v>175.367988</v>
+      </c>
+      <c r="M88" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="N88" s="63" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" s="56"/>
-      <c r="B89" s="61" t="s">
+      <c r="A89" s="55"/>
+      <c r="B89" s="60" t="s">
         <v>156</v>
       </c>
-      <c r="C89" s="62"/>
-      <c r="D89" s="63"/>
-      <c r="E89" s="63"/>
-      <c r="F89" s="63"/>
-      <c r="G89" s="63"/>
-      <c r="H89" s="64"/>
-      <c r="I89" s="62"/>
-      <c r="J89" s="63"/>
-      <c r="K89" s="63"/>
-      <c r="L89" s="63"/>
-      <c r="M89" s="63"/>
-      <c r="N89" s="64"/>
+      <c r="C89" s="61">
+        <v>58.134315000000001</v>
+      </c>
+      <c r="D89" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" s="62">
+        <v>70.555115999999998</v>
+      </c>
+      <c r="F89" s="62">
+        <v>87.965817000000001</v>
+      </c>
+      <c r="G89" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="H89" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="I89" s="61">
+        <v>98.468097999999998</v>
+      </c>
+      <c r="J89" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="K89" s="62">
+        <v>136.53837100000001</v>
+      </c>
+      <c r="L89" s="62">
+        <v>161.62987200000001</v>
+      </c>
+      <c r="M89" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="N89" s="63" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="90" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="56"/>
-      <c r="B90" s="65" t="s">
+      <c r="A90" s="55"/>
+      <c r="B90" s="64" t="s">
         <v>157</v>
       </c>
-      <c r="C90" s="66"/>
-      <c r="D90" s="67"/>
-      <c r="E90" s="67"/>
-      <c r="F90" s="67"/>
-      <c r="G90" s="67"/>
-      <c r="H90" s="68"/>
-      <c r="I90" s="66"/>
-      <c r="J90" s="67"/>
-      <c r="K90" s="67"/>
-      <c r="L90" s="67"/>
-      <c r="M90" s="67"/>
-      <c r="N90" s="68"/>
+      <c r="C90" s="65">
+        <v>33.922539999999998</v>
+      </c>
+      <c r="D90" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="66">
+        <v>56.645878000000003</v>
+      </c>
+      <c r="F90" s="66">
+        <v>75.052938999999995</v>
+      </c>
+      <c r="G90" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H90" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="I90" s="65">
+        <v>56.941443</v>
+      </c>
+      <c r="J90" s="66">
+        <v>206.596452</v>
+      </c>
+      <c r="K90" s="66">
+        <v>104.676626</v>
+      </c>
+      <c r="L90" s="66">
+        <v>134.113845</v>
+      </c>
+      <c r="M90" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="N90" s="67" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" s="56"/>
-      <c r="B91" s="72" t="s">
+      <c r="A91" s="55"/>
+      <c r="B91" s="71" t="s">
         <v>158</v>
       </c>
-      <c r="C91" s="73"/>
-      <c r="D91" s="74"/>
-      <c r="E91" s="74"/>
-      <c r="F91" s="74"/>
-      <c r="G91" s="74"/>
-      <c r="H91" s="75"/>
-      <c r="I91" s="73"/>
-      <c r="J91" s="74"/>
-      <c r="K91" s="74"/>
-      <c r="L91" s="74"/>
-      <c r="M91" s="74"/>
-      <c r="N91" s="75"/>
+      <c r="C91" s="72">
+        <v>79.942391999999998</v>
+      </c>
+      <c r="D91" s="73">
+        <v>95.973839999999996</v>
+      </c>
+      <c r="E91" s="73">
+        <v>123.753687</v>
+      </c>
+      <c r="F91" s="73">
+        <v>176.51856000000001</v>
+      </c>
+      <c r="G91" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="H91" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="I91" s="72">
+        <v>218.43943999999999</v>
+      </c>
+      <c r="J91" s="73">
+        <v>179.534052</v>
+      </c>
+      <c r="K91" s="73">
+        <v>253.468346</v>
+      </c>
+      <c r="L91" s="73">
+        <v>351.96737999999999</v>
+      </c>
+      <c r="M91" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="N91" s="74" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" s="56"/>
-      <c r="B92" s="61" t="s">
+      <c r="A92" s="55"/>
+      <c r="B92" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="C92" s="62"/>
-      <c r="D92" s="63"/>
-      <c r="E92" s="63"/>
-      <c r="F92" s="63"/>
-      <c r="G92" s="63"/>
-      <c r="H92" s="64"/>
-      <c r="I92" s="62"/>
-      <c r="J92" s="63"/>
-      <c r="K92" s="63"/>
-      <c r="L92" s="63"/>
-      <c r="M92" s="63"/>
-      <c r="N92" s="64"/>
+      <c r="C92" s="61">
+        <v>91.225538</v>
+      </c>
+      <c r="D92" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="E92" s="62">
+        <v>100.77672099999999</v>
+      </c>
+      <c r="F92" s="62">
+        <v>110.144795</v>
+      </c>
+      <c r="G92" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="H92" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="I92" s="61">
+        <v>130.094053</v>
+      </c>
+      <c r="J92" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="K92" s="62">
+        <v>170.96443600000001</v>
+      </c>
+      <c r="L92" s="62">
+        <v>210.852125</v>
+      </c>
+      <c r="M92" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="N92" s="63" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93" s="56"/>
-      <c r="B93" s="61" t="s">
+      <c r="A93" s="55"/>
+      <c r="B93" s="60" t="s">
         <v>160</v>
       </c>
-      <c r="C93" s="62"/>
-      <c r="D93" s="63"/>
-      <c r="E93" s="63"/>
-      <c r="F93" s="63"/>
-      <c r="G93" s="63"/>
-      <c r="H93" s="64"/>
-      <c r="I93" s="62"/>
-      <c r="J93" s="63"/>
-      <c r="K93" s="63"/>
-      <c r="L93" s="63"/>
-      <c r="M93" s="63"/>
-      <c r="N93" s="64"/>
+      <c r="C93" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="D93" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="E93" s="62">
+        <v>143.51651200000001</v>
+      </c>
+      <c r="F93" s="62">
+        <v>158.780574</v>
+      </c>
+      <c r="G93" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="H93" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="I93" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="J93" s="62">
+        <v>263.79583600000001</v>
+      </c>
+      <c r="K93" s="62">
+        <v>224.239553</v>
+      </c>
+      <c r="L93" s="62">
+        <v>276.28177399999998</v>
+      </c>
+      <c r="M93" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="N93" s="63" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" s="56"/>
-      <c r="B94" s="61" t="s">
+      <c r="A94" s="55"/>
+      <c r="B94" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="C94" s="62"/>
-      <c r="D94" s="63"/>
-      <c r="E94" s="63"/>
-      <c r="F94" s="63"/>
-      <c r="G94" s="63"/>
-      <c r="H94" s="64"/>
-      <c r="I94" s="62"/>
-      <c r="J94" s="63"/>
-      <c r="K94" s="63"/>
-      <c r="L94" s="63"/>
-      <c r="M94" s="63"/>
-      <c r="N94" s="64"/>
+      <c r="C94" s="61">
+        <v>149.00182799999999</v>
+      </c>
+      <c r="D94" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="E94" s="62">
+        <v>109.482438</v>
+      </c>
+      <c r="F94" s="62">
+        <v>128.42724699999999</v>
+      </c>
+      <c r="G94" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="H94" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="I94" s="61">
+        <v>253.59683200000001</v>
+      </c>
+      <c r="J94" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="K94" s="62">
+        <v>161.41913199999999</v>
+      </c>
+      <c r="L94" s="62">
+        <v>183.01338100000001</v>
+      </c>
+      <c r="M94" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="N94" s="63" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="56"/>
-      <c r="B95" s="61" t="s">
+      <c r="A95" s="55"/>
+      <c r="B95" s="60" t="s">
         <v>162</v>
       </c>
-      <c r="C95" s="62"/>
-      <c r="D95" s="63"/>
-      <c r="E95" s="63"/>
-      <c r="F95" s="63"/>
-      <c r="G95" s="63"/>
-      <c r="H95" s="64"/>
-      <c r="I95" s="62"/>
-      <c r="J95" s="63"/>
-      <c r="K95" s="63"/>
-      <c r="L95" s="63"/>
-      <c r="M95" s="63"/>
-      <c r="N95" s="64"/>
+      <c r="C95" s="61">
+        <v>64.079357999999999</v>
+      </c>
+      <c r="D95" s="62">
+        <v>71.066665</v>
+      </c>
+      <c r="E95" s="62">
+        <v>106.72684700000001</v>
+      </c>
+      <c r="F95" s="62">
+        <v>182.84727799999999</v>
+      </c>
+      <c r="G95" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="H95" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="I95" s="61">
+        <v>133.15800400000001</v>
+      </c>
+      <c r="J95" s="62">
+        <v>117.99984600000001</v>
+      </c>
+      <c r="K95" s="62">
+        <v>167.529684</v>
+      </c>
+      <c r="L95" s="62">
+        <v>344.43490600000001</v>
+      </c>
+      <c r="M95" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="N95" s="63" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="96" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="56"/>
-      <c r="B96" s="65" t="s">
+      <c r="A96" s="55"/>
+      <c r="B96" s="64" t="s">
         <v>163</v>
       </c>
-      <c r="C96" s="66"/>
-      <c r="D96" s="67"/>
-      <c r="E96" s="67"/>
-      <c r="F96" s="67"/>
-      <c r="G96" s="67"/>
-      <c r="H96" s="68"/>
-      <c r="I96" s="66"/>
-      <c r="J96" s="67"/>
-      <c r="K96" s="67"/>
-      <c r="L96" s="67"/>
-      <c r="M96" s="67"/>
-      <c r="N96" s="68"/>
+      <c r="C96" s="65">
+        <v>89.961342000000002</v>
+      </c>
+      <c r="D96" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E96" s="66">
+        <v>117.884745</v>
+      </c>
+      <c r="F96" s="66">
+        <v>134.409908</v>
+      </c>
+      <c r="G96" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H96" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="I96" s="65">
+        <v>134.97430299999999</v>
+      </c>
+      <c r="J96" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="K96" s="66">
+        <v>192.70164500000001</v>
+      </c>
+      <c r="L96" s="66">
+        <v>233.665537</v>
+      </c>
+      <c r="M96" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="N96" s="67" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A97" s="56"/>
-      <c r="B97" s="72" t="s">
+      <c r="A97" s="55"/>
+      <c r="B97" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="C97" s="73"/>
-      <c r="D97" s="74"/>
-      <c r="E97" s="74"/>
-      <c r="F97" s="74"/>
-      <c r="G97" s="74"/>
-      <c r="H97" s="75"/>
-      <c r="I97" s="73"/>
-      <c r="J97" s="74"/>
-      <c r="K97" s="74"/>
-      <c r="L97" s="74"/>
-      <c r="M97" s="74"/>
-      <c r="N97" s="75"/>
+      <c r="C97" s="72">
+        <v>83.977541000000002</v>
+      </c>
+      <c r="D97" s="73">
+        <v>94.157849999999996</v>
+      </c>
+      <c r="E97" s="73">
+        <v>132.09087600000001</v>
+      </c>
+      <c r="F97" s="73">
+        <v>182.5223</v>
+      </c>
+      <c r="G97" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="H97" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="I97" s="72">
+        <v>195.967973</v>
+      </c>
+      <c r="J97" s="73">
+        <v>176.37065699999999</v>
+      </c>
+      <c r="K97" s="73">
+        <v>242.65710000000001</v>
+      </c>
+      <c r="L97" s="73">
+        <v>326.62653799999998</v>
+      </c>
+      <c r="M97" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="N97" s="74" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="98" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="56"/>
-      <c r="B98" s="65" t="s">
+      <c r="A98" s="55"/>
+      <c r="B98" s="64" t="s">
         <v>165</v>
       </c>
-      <c r="C98" s="66"/>
-      <c r="D98" s="67"/>
-      <c r="E98" s="67"/>
-      <c r="F98" s="67"/>
-      <c r="G98" s="67"/>
-      <c r="H98" s="68"/>
-      <c r="I98" s="66"/>
-      <c r="J98" s="67"/>
-      <c r="K98" s="67"/>
-      <c r="L98" s="67"/>
-      <c r="M98" s="67"/>
-      <c r="N98" s="68"/>
+      <c r="C98" s="65">
+        <v>96.112909999999999</v>
+      </c>
+      <c r="D98" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E98" s="66">
+        <v>104.127826</v>
+      </c>
+      <c r="F98" s="66">
+        <v>122.464331</v>
+      </c>
+      <c r="G98" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H98" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="I98" s="65">
+        <v>150.38525799999999</v>
+      </c>
+      <c r="J98" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="K98" s="66">
+        <v>177.21641199999999</v>
+      </c>
+      <c r="L98" s="66">
+        <v>211.724039</v>
+      </c>
+      <c r="M98" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="N98" s="67" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A99" s="77"/>
-      <c r="B99" s="78"/>
-      <c r="C99" s="70"/>
-      <c r="D99" s="70"/>
-      <c r="E99" s="70"/>
-      <c r="F99" s="70"/>
-      <c r="G99" s="70"/>
-      <c r="H99" s="70"/>
-      <c r="I99" s="70"/>
-      <c r="J99" s="70"/>
-      <c r="K99" s="70"/>
-      <c r="L99" s="70"/>
-      <c r="M99" s="70"/>
-      <c r="N99" s="70"/>
+      <c r="A99" s="76"/>
+      <c r="B99" s="77"/>
+      <c r="C99" s="69"/>
+      <c r="D99" s="69"/>
+      <c r="E99" s="69"/>
+      <c r="F99" s="69"/>
+      <c r="G99" s="69"/>
+      <c r="H99" s="69"/>
+      <c r="I99" s="69"/>
+      <c r="J99" s="69"/>
+      <c r="K99" s="69"/>
+      <c r="L99" s="69"/>
+      <c r="M99" s="69"/>
+      <c r="N99" s="69"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C100" s="79"/>
-      <c r="D100" s="79"/>
-      <c r="E100" s="79"/>
-      <c r="F100" s="79"/>
-      <c r="G100" s="79"/>
-      <c r="H100" s="79"/>
-      <c r="I100" s="79"/>
-      <c r="J100" s="79"/>
-      <c r="K100" s="79"/>
-      <c r="L100" s="79"/>
-      <c r="M100" s="79"/>
-      <c r="N100" s="79"/>
+      <c r="C100" s="78"/>
+      <c r="D100" s="78"/>
+      <c r="E100" s="78"/>
+      <c r="F100" s="78"/>
+      <c r="G100" s="78"/>
+      <c r="H100" s="78"/>
+      <c r="I100" s="78"/>
+      <c r="J100" s="78"/>
+      <c r="K100" s="78"/>
+      <c r="L100" s="78"/>
+      <c r="M100" s="78"/>
+      <c r="N100" s="78"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C101" s="79"/>
-      <c r="D101" s="79"/>
-      <c r="E101" s="79"/>
-      <c r="F101" s="79"/>
-      <c r="G101" s="79"/>
-      <c r="H101" s="79"/>
-      <c r="I101" s="79"/>
-      <c r="J101" s="79"/>
-      <c r="K101" s="79"/>
-      <c r="L101" s="79"/>
-      <c r="M101" s="79"/>
-      <c r="N101" s="79"/>
+      <c r="C101" s="78"/>
+      <c r="D101" s="78"/>
+      <c r="E101" s="78"/>
+      <c r="F101" s="78"/>
+      <c r="G101" s="78"/>
+      <c r="H101" s="78"/>
+      <c r="I101" s="78"/>
+      <c r="J101" s="78"/>
+      <c r="K101" s="78"/>
+      <c r="L101" s="78"/>
+      <c r="M101" s="78"/>
+      <c r="N101" s="78"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C102" s="79"/>
-      <c r="D102" s="79"/>
-      <c r="E102" s="79"/>
-      <c r="F102" s="79"/>
-      <c r="G102" s="79"/>
-      <c r="H102" s="79"/>
-      <c r="I102" s="79"/>
-      <c r="J102" s="79"/>
-      <c r="K102" s="79"/>
-      <c r="L102" s="79"/>
-      <c r="M102" s="79"/>
-      <c r="N102" s="79"/>
+      <c r="C102" s="78"/>
+      <c r="D102" s="78"/>
+      <c r="E102" s="78"/>
+      <c r="F102" s="78"/>
+      <c r="G102" s="78"/>
+      <c r="H102" s="78"/>
+      <c r="I102" s="78"/>
+      <c r="J102" s="78"/>
+      <c r="K102" s="78"/>
+      <c r="L102" s="78"/>
+      <c r="M102" s="78"/>
+      <c r="N102" s="78"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C103" s="79"/>
-      <c r="D103" s="79"/>
-      <c r="E103" s="79"/>
-      <c r="F103" s="79"/>
-      <c r="G103" s="79"/>
-      <c r="H103" s="79"/>
-      <c r="I103" s="79"/>
-      <c r="J103" s="79"/>
-      <c r="K103" s="79"/>
-      <c r="L103" s="79"/>
-      <c r="M103" s="79"/>
-      <c r="N103" s="79"/>
+      <c r="C103" s="78"/>
+      <c r="D103" s="78"/>
+      <c r="E103" s="78"/>
+      <c r="F103" s="78"/>
+      <c r="G103" s="78"/>
+      <c r="H103" s="78"/>
+      <c r="I103" s="78"/>
+      <c r="J103" s="78"/>
+      <c r="K103" s="78"/>
+      <c r="L103" s="78"/>
+      <c r="M103" s="78"/>
+      <c r="N103" s="78"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C104" s="79"/>
-      <c r="D104" s="79"/>
-      <c r="E104" s="79"/>
-      <c r="F104" s="79"/>
-      <c r="G104" s="79"/>
-      <c r="H104" s="79"/>
-      <c r="I104" s="79"/>
-      <c r="J104" s="79"/>
-      <c r="K104" s="79"/>
-      <c r="L104" s="79"/>
-      <c r="M104" s="79"/>
-      <c r="N104" s="79"/>
+      <c r="C104" s="78"/>
+      <c r="D104" s="78"/>
+      <c r="E104" s="78"/>
+      <c r="F104" s="78"/>
+      <c r="G104" s="78"/>
+      <c r="H104" s="78"/>
+      <c r="I104" s="78"/>
+      <c r="J104" s="78"/>
+      <c r="K104" s="78"/>
+      <c r="L104" s="78"/>
+      <c r="M104" s="78"/>
+      <c r="N104" s="78"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C105" s="79"/>
-      <c r="D105" s="79"/>
-      <c r="E105" s="79"/>
-      <c r="F105" s="79"/>
-      <c r="G105" s="79"/>
-      <c r="H105" s="79"/>
-      <c r="I105" s="79"/>
-      <c r="J105" s="79"/>
-      <c r="K105" s="79"/>
-      <c r="L105" s="79"/>
-      <c r="M105" s="79"/>
-      <c r="N105" s="79"/>
+      <c r="C105" s="78"/>
+      <c r="D105" s="78"/>
+      <c r="E105" s="78"/>
+      <c r="F105" s="78"/>
+      <c r="G105" s="78"/>
+      <c r="H105" s="78"/>
+      <c r="I105" s="78"/>
+      <c r="J105" s="78"/>
+      <c r="K105" s="78"/>
+      <c r="L105" s="78"/>
+      <c r="M105" s="78"/>
+      <c r="N105" s="78"/>
     </row>
     <row r="106" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B106" s="80"/>
-      <c r="C106" s="79"/>
-      <c r="D106" s="79"/>
-      <c r="E106" s="79"/>
-      <c r="F106" s="79"/>
-      <c r="G106" s="79"/>
-      <c r="H106" s="79"/>
-      <c r="I106" s="79"/>
-      <c r="J106" s="79"/>
-      <c r="K106" s="79"/>
-      <c r="L106" s="79"/>
-      <c r="M106" s="79"/>
-      <c r="N106" s="79"/>
+      <c r="B106" s="79"/>
+      <c r="C106" s="78"/>
+      <c r="D106" s="78"/>
+      <c r="E106" s="78"/>
+      <c r="F106" s="78"/>
+      <c r="G106" s="78"/>
+      <c r="H106" s="78"/>
+      <c r="I106" s="78"/>
+      <c r="J106" s="78"/>
+      <c r="K106" s="78"/>
+      <c r="L106" s="78"/>
+      <c r="M106" s="78"/>
+      <c r="N106" s="78"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B107" s="81" t="s">
+      <c r="B107" s="80" t="s">
         <v>171</v>
       </c>
-      <c r="C107" s="79"/>
-      <c r="D107" s="79"/>
-      <c r="E107" s="79"/>
-      <c r="F107" s="79"/>
-      <c r="G107" s="79"/>
-      <c r="H107" s="79"/>
-      <c r="I107" s="79"/>
-      <c r="J107" s="79"/>
-      <c r="K107" s="79"/>
-      <c r="L107" s="79"/>
-      <c r="M107" s="79"/>
-      <c r="N107" s="79"/>
+      <c r="C107" s="78"/>
+      <c r="D107" s="78"/>
+      <c r="E107" s="78"/>
+      <c r="F107" s="78"/>
+      <c r="G107" s="78"/>
+      <c r="H107" s="78"/>
+      <c r="I107" s="78"/>
+      <c r="J107" s="78"/>
+      <c r="K107" s="78"/>
+      <c r="L107" s="78"/>
+      <c r="M107" s="78"/>
+      <c r="N107" s="78"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B108" s="2"/>
-      <c r="C108" s="79"/>
-      <c r="D108" s="79"/>
-      <c r="E108" s="79"/>
-      <c r="F108" s="79"/>
-      <c r="G108" s="79"/>
-      <c r="H108" s="79"/>
-      <c r="I108" s="79"/>
-      <c r="J108" s="79"/>
-      <c r="K108" s="79"/>
-      <c r="L108" s="79"/>
-      <c r="M108" s="79"/>
-      <c r="N108" s="79"/>
+      <c r="C108" s="78"/>
+      <c r="D108" s="78"/>
+      <c r="E108" s="78"/>
+      <c r="F108" s="78"/>
+      <c r="G108" s="78"/>
+      <c r="H108" s="78"/>
+      <c r="I108" s="78"/>
+      <c r="J108" s="78"/>
+      <c r="K108" s="78"/>
+      <c r="L108" s="78"/>
+      <c r="M108" s="78"/>
+      <c r="N108" s="78"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="83" t="s">
         <v>173</v>
       </c>
-      <c r="C109" s="79"/>
-      <c r="D109" s="79"/>
-      <c r="E109" s="79"/>
-      <c r="F109" s="79"/>
-      <c r="G109" s="79"/>
-      <c r="H109" s="79"/>
-      <c r="I109" s="79"/>
-      <c r="J109" s="79"/>
-      <c r="K109" s="79"/>
-      <c r="L109" s="79"/>
-      <c r="M109" s="79"/>
-      <c r="N109" s="79"/>
+      <c r="C109" s="78"/>
+      <c r="D109" s="78"/>
+      <c r="E109" s="78"/>
+      <c r="F109" s="78"/>
+      <c r="G109" s="78"/>
+      <c r="H109" s="78"/>
+      <c r="I109" s="78"/>
+      <c r="J109" s="78"/>
+      <c r="K109" s="78"/>
+      <c r="L109" s="78"/>
+      <c r="M109" s="78"/>
+      <c r="N109" s="78"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="83" t="s">
         <v>174</v>
       </c>
-      <c r="C110" s="79"/>
-      <c r="D110" s="79"/>
-      <c r="E110" s="79"/>
-      <c r="F110" s="79"/>
-      <c r="G110" s="79"/>
-      <c r="H110" s="79"/>
-      <c r="I110" s="79"/>
-      <c r="J110" s="79"/>
-      <c r="K110" s="79"/>
-      <c r="L110" s="79"/>
-      <c r="M110" s="79"/>
-      <c r="N110" s="79"/>
+      <c r="C110" s="78"/>
+      <c r="D110" s="78"/>
+      <c r="E110" s="78"/>
+      <c r="F110" s="78"/>
+      <c r="G110" s="78"/>
+      <c r="H110" s="78"/>
+      <c r="I110" s="78"/>
+      <c r="J110" s="78"/>
+      <c r="K110" s="78"/>
+      <c r="L110" s="78"/>
+      <c r="M110" s="78"/>
+      <c r="N110" s="78"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B111" s="84" t="s">
+      <c r="B111" s="83" t="s">
         <v>175</v>
       </c>
-      <c r="C111" s="79"/>
-      <c r="D111" s="79"/>
-      <c r="E111" s="79"/>
-      <c r="F111" s="79"/>
-      <c r="G111" s="79"/>
-      <c r="H111" s="79"/>
-      <c r="I111" s="79"/>
-      <c r="J111" s="79"/>
-      <c r="K111" s="79"/>
-      <c r="L111" s="79"/>
-      <c r="M111" s="79"/>
-      <c r="N111" s="79"/>
+      <c r="C111" s="78"/>
+      <c r="D111" s="78"/>
+      <c r="E111" s="78"/>
+      <c r="F111" s="78"/>
+      <c r="G111" s="78"/>
+      <c r="H111" s="78"/>
+      <c r="I111" s="78"/>
+      <c r="J111" s="78"/>
+      <c r="K111" s="78"/>
+      <c r="L111" s="78"/>
+      <c r="M111" s="78"/>
+      <c r="N111" s="78"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C112" s="79"/>
-      <c r="D112" s="79"/>
-      <c r="E112" s="79"/>
-      <c r="F112" s="79"/>
-      <c r="G112" s="79"/>
-      <c r="H112" s="79"/>
-      <c r="I112" s="79"/>
-      <c r="J112" s="79"/>
-      <c r="K112" s="79"/>
-      <c r="L112" s="79"/>
-      <c r="M112" s="79"/>
-      <c r="N112" s="79"/>
+      <c r="C112" s="78"/>
+      <c r="D112" s="78"/>
+      <c r="E112" s="78"/>
+      <c r="F112" s="78"/>
+      <c r="G112" s="78"/>
+      <c r="H112" s="78"/>
+      <c r="I112" s="78"/>
+      <c r="J112" s="78"/>
+      <c r="K112" s="78"/>
+      <c r="L112" s="78"/>
+      <c r="M112" s="78"/>
+      <c r="N112" s="78"/>
     </row>
     <row r="113" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B113" s="82"/>
-      <c r="C113" s="79"/>
-      <c r="D113" s="79"/>
-      <c r="E113" s="79"/>
-      <c r="F113" s="79"/>
-      <c r="G113" s="79"/>
-      <c r="H113" s="79"/>
-      <c r="I113" s="79"/>
-      <c r="J113" s="79"/>
-      <c r="K113" s="79"/>
-      <c r="L113" s="79"/>
-      <c r="M113" s="79"/>
-      <c r="N113" s="79"/>
+      <c r="B113" s="81"/>
+      <c r="C113" s="78"/>
+      <c r="D113" s="78"/>
+      <c r="E113" s="78"/>
+      <c r="F113" s="78"/>
+      <c r="G113" s="78"/>
+      <c r="H113" s="78"/>
+      <c r="I113" s="78"/>
+      <c r="J113" s="78"/>
+      <c r="K113" s="78"/>
+      <c r="L113" s="78"/>
+      <c r="M113" s="78"/>
+      <c r="N113" s="78"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D4:O7"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{9B3D2BE5-9D1D-4AAB-9AB7-1B130FDC3908}"/>
-    <hyperlink ref="B109" r:id="rId2" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{C857CB79-EB2A-4D6F-AFEB-61EF71C3CE59}"/>
-    <hyperlink ref="B110" r:id="rId3" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{A64F21E0-3EF2-4639-B211-E952184F4BB9}"/>
-    <hyperlink ref="B107" r:id="rId4" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please click here the visit the Africa's Development Dynamics website." xr:uid="{86D79997-2ED9-4A77-AFCC-A1ED9ECC0FE6}"/>
-    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{2734015C-0D61-41D8-A31A-0287FEE733DD}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{45F60C8D-636D-49DA-968A-986742DC5DF1}"/>
+    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{220E8AB3-9484-45CA-87E2-5840D4F48C1D}"/>
+    <hyperlink ref="B109" r:id="rId2" xr:uid="{67C24F10-2748-4BFF-AA37-035991243C25}"/>
+    <hyperlink ref="B110" r:id="rId3" xr:uid="{52DFF2E3-BE75-4357-B63D-A8B93DF7C892}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{8F32AB47-A67E-4102-A538-39913C92D6B6}"/>
+    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{DFF75923-2AE8-4365-B888-53588718615A}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{D8F1197E-9D29-44A7-B75A-120EC881060D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>

--- a/DDAf_2025_Tableau_annexe_Tab31.xlsx
+++ b/DDAf_2025_Tableau_annexe_Tab31.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22BD9679-E444-4BDD-952F-EF71EA3F436D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA713B6C-17B4-4DF9-8239-25CF19389C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{B6CA04D5-5F64-4BA3-A028-1CEE4B10B08C}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{FA9ACA2C-8BDA-40C0-83FE-E1B2D4A34A6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab31" sheetId="1" r:id="rId1"/>
@@ -546,7 +546,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "PaÃ­ses Africanos de LÃ­ngua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado ComÃºn del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Source: ESCAP-World Bank Trade Cost Database (updated 13/08/2025).</t>
@@ -1460,7 +1460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{121AB1FD-6E93-41F2-BF91-F411A0409F2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D969AF3-4661-49F4-892E-F52C001EF137}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1468,15 +1468,15 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="14.42578125" style="82" customWidth="1"/>
-    <col min="15" max="26" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="14.453125" style="82" customWidth="1"/>
+    <col min="15" max="26" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1493,7 +1493,7 @@
       <c r="M1" s="4"/>
       <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="1:14" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>15</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>18</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>20</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>22</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>24</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>26</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>28</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>30</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>32</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
         <v>34</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="28"/>
       <c r="B13" s="29" t="s">
         <v>36</v>
@@ -2019,7 +2019,7 @@
         <v>268.52689800000002</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>37</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>39</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>41</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
         <v>43</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>45</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>47</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>49</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
         <v>51</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="11" t="s">
         <v>53</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="28"/>
       <c r="B23" s="29" t="s">
         <v>55</v>
@@ -2457,7 +2457,7 @@
         <v>314.31396599999999</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
         <v>56</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
         <v>58</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
         <v>60</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
         <v>62</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
         <v>64</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
         <v>66</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
         <v>68</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
         <v>70</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
         <v>72</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
         <v>74</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
         <v>76</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
         <v>78</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
         <v>80</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="11" t="s">
         <v>82</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="28"/>
       <c r="B38" s="29" t="s">
         <v>84</v>
@@ -3115,7 +3115,7 @@
         <v>278.89955600000002</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
         <v>85</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
         <v>87</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
         <v>89</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
         <v>91</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="11" t="s">
         <v>93</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="11" t="s">
         <v>95</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="28"/>
       <c r="B45" s="29" t="s">
         <v>97</v>
@@ -3421,7 +3421,7 @@
         <v>202.500328</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="11" t="s">
         <v>98</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="11" t="s">
         <v>100</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="11" t="s">
         <v>102</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="11" t="s">
         <v>104</v>
       </c>
@@ -3597,7 +3597,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="11" t="s">
         <v>106</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="s">
         <v>108</v>
       </c>
@@ -3685,7 +3685,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="11" t="s">
         <v>110</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="11" t="s">
         <v>112</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="11" t="s">
         <v>114</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="s">
         <v>116</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" s="11" t="s">
         <v>118</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
         <v>120</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" s="11" t="s">
         <v>122</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="11" t="s">
         <v>124</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="11" t="s">
         <v>126</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="28"/>
       <c r="B61" s="29" t="s">
         <v>128</v>
@@ -4123,7 +4123,7 @@
         <v>315.03725400000002</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="50"/>
       <c r="B62" s="51" t="s">
         <v>129</v>
@@ -4165,7 +4165,7 @@
         <v>258.10655800000001</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="50"/>
       <c r="B63" s="51" t="s">
         <v>130</v>
@@ -4207,7 +4207,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" s="55"/>
       <c r="B64" s="56" t="s">
         <v>131</v>
@@ -4249,7 +4249,7 @@
         <v>138.68440899999999</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" s="55"/>
       <c r="B65" s="60" t="s">
         <v>132</v>
@@ -4291,7 +4291,7 @@
         <v>182.36218299999999</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="55"/>
       <c r="B66" s="64" t="s">
         <v>133</v>
@@ -4333,7 +4333,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" s="55"/>
       <c r="B67" s="60" t="s">
         <v>134</v>
@@ -4375,7 +4375,7 @@
         <v>241.01204000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" s="55"/>
       <c r="B68" s="60" t="s">
         <v>135</v>
@@ -4417,7 +4417,7 @@
         <v>243.23670000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" s="55"/>
       <c r="B69" s="60" t="s">
         <v>136</v>
@@ -4459,7 +4459,7 @@
         <v>288.92095999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" s="55"/>
       <c r="B70" s="60" t="s">
         <v>137</v>
@@ -4501,7 +4501,7 @@
         <v>403.14083599999998</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71" s="55"/>
       <c r="B71" s="60" t="s">
         <v>138</v>
@@ -4543,7 +4543,7 @@
         <v>315.03725400000002</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72" s="55"/>
       <c r="B72" s="60" t="s">
         <v>139</v>
@@ -4585,7 +4585,7 @@
         <v>267.43481400000002</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" s="55"/>
       <c r="B73" s="60" t="s">
         <v>140</v>
@@ -4627,7 +4627,7 @@
         <v>272.60654799999998</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74" s="55"/>
       <c r="B74" s="60" t="s">
         <v>141</v>
@@ -4669,7 +4669,7 @@
         <v>211.71930800000001</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="55"/>
       <c r="B75" s="60" t="s">
         <v>142</v>
@@ -4711,7 +4711,7 @@
         <v>438.86334099999999</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76" s="55"/>
       <c r="B76" s="71" t="s">
         <v>143</v>
@@ -4753,7 +4753,7 @@
         <v>172.96059600000001</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77" s="55"/>
       <c r="B77" s="60" t="s">
         <v>144</v>
@@ -4795,7 +4795,7 @@
         <v>178.18885800000001</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78" s="55"/>
       <c r="B78" s="60" t="s">
         <v>145</v>
@@ -4837,7 +4837,7 @@
         <v>174.84316000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="55"/>
       <c r="B79" s="64" t="s">
         <v>146</v>
@@ -4879,7 +4879,7 @@
         <v>182.56481700000001</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" s="55"/>
       <c r="B80" s="71" t="s">
         <v>147</v>
@@ -4921,7 +4921,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81" s="55"/>
       <c r="B81" s="60" t="s">
         <v>148</v>
@@ -4963,7 +4963,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82" s="55"/>
       <c r="B82" s="60" t="s">
         <v>149</v>
@@ -5005,7 +5005,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="55"/>
       <c r="B83" s="64" t="s">
         <v>150</v>
@@ -5047,7 +5047,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" s="55"/>
       <c r="B84" s="71" t="s">
         <v>151</v>
@@ -5089,7 +5089,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85" s="55"/>
       <c r="B85" s="75" t="s">
         <v>152</v>
@@ -5131,7 +5131,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" s="55"/>
       <c r="B86" s="60" t="s">
         <v>153</v>
@@ -5173,7 +5173,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" s="55"/>
       <c r="B87" s="60" t="s">
         <v>154</v>
@@ -5215,7 +5215,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88" s="55"/>
       <c r="B88" s="60" t="s">
         <v>155</v>
@@ -5257,7 +5257,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89" s="55"/>
       <c r="B89" s="60" t="s">
         <v>156</v>
@@ -5299,7 +5299,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="55"/>
       <c r="B90" s="64" t="s">
         <v>157</v>
@@ -5341,7 +5341,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" s="55"/>
       <c r="B91" s="71" t="s">
         <v>158</v>
@@ -5383,7 +5383,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92" s="55"/>
       <c r="B92" s="60" t="s">
         <v>159</v>
@@ -5425,7 +5425,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93" s="55"/>
       <c r="B93" s="60" t="s">
         <v>160</v>
@@ -5467,7 +5467,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" s="55"/>
       <c r="B94" s="60" t="s">
         <v>161</v>
@@ -5509,7 +5509,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95" s="55"/>
       <c r="B95" s="60" t="s">
         <v>162</v>
@@ -5551,7 +5551,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="55"/>
       <c r="B96" s="64" t="s">
         <v>163</v>
@@ -5593,7 +5593,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97" s="55"/>
       <c r="B97" s="71" t="s">
         <v>164</v>
@@ -5635,7 +5635,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="55"/>
       <c r="B98" s="64" t="s">
         <v>165</v>
@@ -5677,7 +5677,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99" s="76"/>
       <c r="B99" s="77"/>
       <c r="C99" s="69"/>
@@ -5693,7 +5693,7 @@
       <c r="M99" s="69"/>
       <c r="N99" s="69"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>166</v>
       </c>
@@ -5710,7 +5710,7 @@
       <c r="M100" s="78"/>
       <c r="N100" s="78"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>167</v>
       </c>
@@ -5727,7 +5727,7 @@
       <c r="M101" s="78"/>
       <c r="N101" s="78"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>168</v>
       </c>
@@ -5744,7 +5744,7 @@
       <c r="M102" s="78"/>
       <c r="N102" s="78"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>169</v>
       </c>
@@ -5761,7 +5761,7 @@
       <c r="M103" s="78"/>
       <c r="N103" s="78"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>170</v>
       </c>
@@ -5778,7 +5778,7 @@
       <c r="M104" s="78"/>
       <c r="N104" s="78"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C105" s="78"/>
       <c r="D105" s="78"/>
       <c r="E105" s="78"/>
@@ -5792,7 +5792,7 @@
       <c r="M105" s="78"/>
       <c r="N105" s="78"/>
     </row>
-    <row r="106" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B106" s="79"/>
       <c r="C106" s="78"/>
       <c r="D106" s="78"/>
@@ -5807,7 +5807,7 @@
       <c r="M106" s="78"/>
       <c r="N106" s="78"/>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B107" s="80" t="s">
         <v>171</v>
       </c>
@@ -5824,7 +5824,7 @@
       <c r="M107" s="78"/>
       <c r="N107" s="78"/>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B108" s="2"/>
       <c r="C108" s="78"/>
       <c r="D108" s="78"/>
@@ -5839,7 +5839,7 @@
       <c r="M108" s="78"/>
       <c r="N108" s="78"/>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B109" s="83" t="s">
         <v>173</v>
       </c>
@@ -5856,7 +5856,7 @@
       <c r="M109" s="78"/>
       <c r="N109" s="78"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B110" s="83" t="s">
         <v>174</v>
       </c>
@@ -5873,7 +5873,7 @@
       <c r="M110" s="78"/>
       <c r="N110" s="78"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B111" s="83" t="s">
         <v>175</v>
       </c>
@@ -5890,7 +5890,7 @@
       <c r="M111" s="78"/>
       <c r="N111" s="78"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
         <v>172</v>
       </c>
@@ -5907,7 +5907,7 @@
       <c r="M112" s="78"/>
       <c r="N112" s="78"/>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B113" s="81"/>
       <c r="C113" s="78"/>
       <c r="D113" s="78"/>
@@ -5924,12 +5924,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{220E8AB3-9484-45CA-87E2-5840D4F48C1D}"/>
-    <hyperlink ref="B109" r:id="rId2" xr:uid="{67C24F10-2748-4BFF-AA37-035991243C25}"/>
-    <hyperlink ref="B110" r:id="rId3" xr:uid="{52DFF2E3-BE75-4357-B63D-A8B93DF7C892}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{8F32AB47-A67E-4102-A538-39913C92D6B6}"/>
-    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{DFF75923-2AE8-4365-B888-53588718615A}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{D8F1197E-9D29-44A7-B75A-120EC881060D}"/>
+    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{92C142A2-FA20-4C50-89A9-625CA5627651}"/>
+    <hyperlink ref="B109" r:id="rId2" xr:uid="{D97EC5D5-64CE-4845-AC19-3D32DC39FDFC}"/>
+    <hyperlink ref="B110" r:id="rId3" xr:uid="{2FA98D35-31F9-4DB4-A3FC-9B0B89256A1B}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{A0EACB0F-FFF1-4C83-A418-EBDA7C13E8BC}"/>
+    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{319A9A02-D2A2-4CD1-B2E2-94B66F401DBE}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{19417237-0D26-430C-92FB-0232A88FC5D2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>

--- a/DDAf_2025_Tableau_annexe_Tab31.xlsx
+++ b/DDAf_2025_Tableau_annexe_Tab31.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA713B6C-17B4-4DF9-8239-25CF19389C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD6D7734-F500-4F94-9F5C-263B34387DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{FA9ACA2C-8BDA-40C0-83FE-E1B2D4A34A6E}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{89864955-AB74-4209-A8D5-F153B80933D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab31" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab31'!$A$2:$E$98</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab31'!$A$1:$E$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab31'!$A$2:$J$98</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab31'!$A$1:$J$103</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,57 +37,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="176">
-  <si>
-    <t>Table 31: International trade costs</t>
-  </si>
-  <si>
-    <t>CntryCode</t>
-  </si>
-  <si>
-    <t>Country (Resource-rich countries are shaded)</t>
-  </si>
-  <si>
-    <t>Average cost of trade with bordering countries as % of merchandise value, manufactured goods, 2020</t>
-  </si>
-  <si>
-    <t>Average cost of trade within the same AU region as % of merchandise value, manufactured goods, 2020</t>
-  </si>
-  <si>
-    <t>Average cost of trade within continent as % of merchandise value, manufactured goods, 2020</t>
-  </si>
-  <si>
-    <t>Average cost of trade with all countries as % of merchandise value, manufactured goods, 2020</t>
-  </si>
-  <si>
-    <t>Average cost of trade within country group as % of merchandise value, manufactured goods, 2020</t>
-  </si>
-  <si>
-    <t>Average cost of trade with countries outside the country group as % of merchandise value, manufactured goods, 2020</t>
-  </si>
-  <si>
-    <t>Average cost of trade with bordering countries as % of merchandise value, primary goods, 2020</t>
-  </si>
-  <si>
-    <t>Average cost of trade within the same AU region as % of merchandise value, primary goods, 2020</t>
-  </si>
-  <si>
-    <t>Average cost of trade within continent as % of merchandise value, primary goods, 2020</t>
-  </si>
-  <si>
-    <t>Average cost of trade with all countries as % of merchandise value, primary goods, 2020</t>
-  </si>
-  <si>
-    <t>Average cost of trade within country group as % of merchandise value, primary goods, 2020</t>
-  </si>
-  <si>
-    <t>Average cost of trade with countries outside the country group as % of merchandise value, primary goods, 2020</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="178">
+  <si>
+    <t>Tableau 31 : Coûts du commerce international</t>
+  </si>
+  <si>
+    <t>ISO3 Code</t>
+  </si>
+  <si>
+    <t>Pays (pays riches en ressources ombrés)</t>
+  </si>
+  <si>
+    <t>Coût moyen du commerce avec les pays limitrophes en % de la valeur des marchandises, produits manufacturés, 2020</t>
+  </si>
+  <si>
+    <t>Coût moyen du commerce au sein de la même région de l'UA en % de la valeur des marchandises, produits manufacturés, 2020</t>
+  </si>
+  <si>
+    <t>Coût moyen du commerce à l'intérieur du continent en % de la valeur des marchandises, produits manufacturés, 2020</t>
+  </si>
+  <si>
+    <t>Coût moyen du commerce avec tous les pays en % de la valeur des marchandises, produits manufacturés, 2020</t>
+  </si>
+  <si>
+    <t>Coût moyen du commerce au sein du groupe de pays en % de la valeur des marchandises, produits manufacturés, 2020</t>
+  </si>
+  <si>
+    <t>Coût moyen du commerce avec les pays hors du groupe de pays en % de la valeur des marchandises, produits manufacturés, 2020</t>
+  </si>
+  <si>
+    <t>Coût moyen du commerce avec les pays limitrophes en % de la valeur des marchandises, produits primaires, 2020</t>
+  </si>
+  <si>
+    <t>Coût moyen du commerce au sein de la même région de l'UA en % de la valeur des marchandises, produits primaires, 2020</t>
+  </si>
+  <si>
+    <t>Coût moyen du commerce à l'intérieur du continent en % de la valeur des marchandises, produits primaires, 2020</t>
+  </si>
+  <si>
+    <t>Coût moyen du commerce avec tous les pays en % de la valeur des marchandises, produits primaires, 2020</t>
+  </si>
+  <si>
+    <t>Coût moyen du commerce au sein du groupe de pays en % de la valeur des marchandises, produits primaires, 2020</t>
+  </si>
+  <si>
+    <t>Coût moyen du commerce avec les pays hors du groupe de pays en % de la valeur des marchandises, produits primaires, 2020</t>
   </si>
   <si>
     <t>AGO</t>
   </si>
   <si>
-    <t>Angola*</t>
+    <t>Angola</t>
   </si>
   <si>
     <t>..</t>
@@ -126,19 +126,19 @@
     <t>NAM</t>
   </si>
   <si>
-    <t>Namibia</t>
+    <t>Namibie</t>
   </si>
   <si>
     <t>ZAF</t>
   </si>
   <si>
-    <t>South Africa</t>
+    <t>Afrique du Sud</t>
   </si>
   <si>
     <t>ZMB</t>
   </si>
   <si>
-    <t>Zambia</t>
+    <t>Zambie</t>
   </si>
   <si>
     <t>ZWE</t>
@@ -147,7 +147,10 @@
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t>Southern Africa</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Afrique Australe</t>
   </si>
   <si>
     <t>BDI</t>
@@ -159,58 +162,58 @@
     <t>CMR</t>
   </si>
   <si>
-    <t>Cameroon</t>
+    <t>Cameroun</t>
   </si>
   <si>
     <t>CAF</t>
   </si>
   <si>
-    <t>Central African Republic</t>
+    <t>République centrafricaine</t>
   </si>
   <si>
     <t>TCD</t>
   </si>
   <si>
-    <t>Chad*</t>
+    <t>Tchad</t>
   </si>
   <si>
     <t>COG</t>
   </si>
   <si>
-    <t>Congo Republic*</t>
+    <t>République du Congo</t>
   </si>
   <si>
     <t>COD</t>
   </si>
   <si>
-    <t>DR Congo</t>
+    <t>RD Congo</t>
   </si>
   <si>
     <t>GNQ</t>
   </si>
   <si>
-    <t>Equatorial Guinea*</t>
+    <t>Guinée équatoriale</t>
   </si>
   <si>
     <t>GAB</t>
   </si>
   <si>
-    <t>Gabon*</t>
+    <t>Gabon</t>
   </si>
   <si>
     <t>STP</t>
   </si>
   <si>
-    <t>São Tomé and Príncipe</t>
-  </si>
-  <si>
-    <t>Central Africa</t>
+    <t>Sao Tomé-et-Principe</t>
+  </si>
+  <si>
+    <t>Afrique Centrale</t>
   </si>
   <si>
     <t>COM</t>
   </si>
   <si>
-    <t>Comoros</t>
+    <t>Comores</t>
   </si>
   <si>
     <t>DJI</t>
@@ -222,13 +225,13 @@
     <t>ERI</t>
   </si>
   <si>
-    <t>Eritrea</t>
+    <t>Érythrée</t>
   </si>
   <si>
     <t>ETH</t>
   </si>
   <si>
-    <t>Ethiopia</t>
+    <t>Éthiopie</t>
   </si>
   <si>
     <t>KEN</t>
@@ -246,7 +249,7 @@
     <t>MUS</t>
   </si>
   <si>
-    <t>Mauritius</t>
+    <t>Maurice</t>
   </si>
   <si>
     <t>RWA</t>
@@ -264,79 +267,79 @@
     <t>SOM</t>
   </si>
   <si>
-    <t>Somalia</t>
+    <t>Somalie</t>
   </si>
   <si>
     <t>SSD</t>
   </si>
   <si>
-    <t>South Sudan*</t>
+    <t>Soudan du Sud</t>
   </si>
   <si>
     <t>SDN</t>
   </si>
   <si>
-    <t>Sudan</t>
+    <t>Soudan</t>
   </si>
   <si>
     <t>TZA</t>
   </si>
   <si>
-    <t>Tanzania</t>
+    <t>Tanzanie</t>
   </si>
   <si>
     <t>UGA</t>
   </si>
   <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>East Africa</t>
+    <t>Ouganda</t>
+  </si>
+  <si>
+    <t>Afrique de l'Est</t>
   </si>
   <si>
     <t>DZA</t>
   </si>
   <si>
-    <t>Algeria*</t>
+    <t>Algérie</t>
   </si>
   <si>
     <t>EGY</t>
   </si>
   <si>
-    <t>Egypt</t>
+    <t>Égypte</t>
   </si>
   <si>
     <t>LBY</t>
   </si>
   <si>
-    <t>Libya*</t>
+    <t>Libye</t>
   </si>
   <si>
     <t>MRT</t>
   </si>
   <si>
-    <t>Mauritania*</t>
+    <t>Mauritanie</t>
   </si>
   <si>
     <t>MAR</t>
   </si>
   <si>
-    <t>Morocco</t>
+    <t>Maroc</t>
   </si>
   <si>
     <t>TUN</t>
   </si>
   <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>North Africa</t>
+    <t>Tunisie</t>
+  </si>
+  <si>
+    <t>Afrique du Nord</t>
   </si>
   <si>
     <t>BEN</t>
   </si>
   <si>
-    <t>Benin</t>
+    <t>Bénin</t>
   </si>
   <si>
     <t>BFA</t>
@@ -348,7 +351,7 @@
     <t>CPV</t>
   </si>
   <si>
-    <t>Cabo Verde*</t>
+    <t>Cabo Verde</t>
   </si>
   <si>
     <t>CIV</t>
@@ -360,7 +363,7 @@
     <t>GMB</t>
   </si>
   <si>
-    <t>Gambia</t>
+    <t>Gambie</t>
   </si>
   <si>
     <t>GHA</t>
@@ -372,13 +375,13 @@
     <t>GIN</t>
   </si>
   <si>
-    <t>Guinea</t>
+    <t>Guinée</t>
   </si>
   <si>
     <t>GNB</t>
   </si>
   <si>
-    <t>Guinea-Bissau</t>
+    <t>Guinée-Bissau</t>
   </si>
   <si>
     <t>LBR</t>
@@ -408,7 +411,7 @@
     <t>SEN</t>
   </si>
   <si>
-    <t>Senegal</t>
+    <t>Sénégal</t>
   </si>
   <si>
     <t>SLE</t>
@@ -423,22 +426,22 @@
     <t>Togo</t>
   </si>
   <si>
-    <t>West Africa</t>
-  </si>
-  <si>
-    <t>Africa</t>
-  </si>
-  <si>
-    <t>World outside Africa</t>
-  </si>
-  <si>
-    <t>Latin America and Caribbean</t>
-  </si>
-  <si>
-    <t>Asia (no high inc.)</t>
-  </si>
-  <si>
-    <t>World</t>
+    <t>Afrique de l'Ouest</t>
+  </si>
+  <si>
+    <t>Afrique</t>
+  </si>
+  <si>
+    <t>Reste du monde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amérique latine et Caraîbes </t>
+  </si>
+  <si>
+    <t>Asie (pays à revenu élevé exclus)</t>
+  </si>
+  <si>
+    <t>Monde</t>
   </si>
   <si>
     <t>COMESA</t>
@@ -447,19 +450,19 @@
     <t>CEN-SAD</t>
   </si>
   <si>
-    <t>EAC</t>
-  </si>
-  <si>
-    <t>ECCAS</t>
-  </si>
-  <si>
-    <t>ECOWAS</t>
+    <t>CAE</t>
+  </si>
+  <si>
+    <t>CEEAC</t>
+  </si>
+  <si>
+    <t>CEDEAO</t>
   </si>
   <si>
     <t>IGAD</t>
   </si>
   <si>
-    <t>SADC</t>
+    <t>CDAA</t>
   </si>
   <si>
     <t>UMA</t>
@@ -477,104 +480,110 @@
     <t>EU27</t>
   </si>
   <si>
-    <t>OECD</t>
-  </si>
-  <si>
-    <t>Africa, Resource-rich countries</t>
-  </si>
-  <si>
-    <t>ROW, Resource-rich countries</t>
-  </si>
-  <si>
-    <t>Africa, Non-resource-rich countries</t>
-  </si>
-  <si>
-    <t>ROW, Non-resource-rich countries</t>
-  </si>
-  <si>
-    <t>Africa, Low income countries</t>
-  </si>
-  <si>
-    <t>ROW, Low income countries</t>
-  </si>
-  <si>
-    <t>Africa, Lower middle income countries</t>
-  </si>
-  <si>
-    <t>ROW, Lower middle income countries</t>
-  </si>
-  <si>
-    <t>Africa, Upper middle income countries</t>
-  </si>
-  <si>
-    <t>ROW, Upper middle income countries</t>
-  </si>
-  <si>
-    <t>High income countries</t>
-  </si>
-  <si>
-    <t>Africa, Least Developed Countries</t>
-  </si>
-  <si>
-    <t>ROW, Least Developed Countries</t>
-  </si>
-  <si>
-    <t>Africa, Small Island Developing States</t>
-  </si>
-  <si>
-    <t>ROW, Small Island Developing States</t>
-  </si>
-  <si>
-    <t>Africa, Landlocked Developing Countries</t>
-  </si>
-  <si>
-    <t>ROW, Landlocked Developing Countries</t>
-  </si>
-  <si>
-    <t>Africa, High and extreme fragility</t>
-  </si>
-  <si>
-    <t>ROW, High and extreme fragility</t>
-  </si>
-  <si>
-    <t>Disclaimer: This table and any data included herein is without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
-  </si>
-  <si>
-    <t>Note: *Resource-rich countries; ".." indicates data not available or not applicable.</t>
-  </si>
-  <si>
-    <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
-  </si>
-  <si>
-    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
-  </si>
-  <si>
-    <t>Source: ESCAP-World Bank Trade Cost Database (updated 13/08/2025).</t>
-  </si>
-  <si>
-    <t>CLICK HERE to visit the website where you can find the Africa's Development Dynamics report, and where you can find links to explore these data further and look up historic values for these indicators.</t>
-  </si>
-  <si>
-    <t>CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000 (in a compressed file format).</t>
-  </si>
-  <si>
-    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
-  </si>
-  <si>
-    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators, click here.</t>
-  </si>
-  <si>
-    <t>To see the full list of sources used in the Statistical Annex, click here.</t>
+    <t>OCDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afrique, pays riches en ressources </t>
+  </si>
+  <si>
+    <t>RDM, pays riches en ressources</t>
+  </si>
+  <si>
+    <t>Afrique (pays riches en ressources exclus)</t>
+  </si>
+  <si>
+    <t>RDM (pays riches en ressources exclus)</t>
+  </si>
+  <si>
+    <t>Afrique, pays à faible revenu</t>
+  </si>
+  <si>
+    <t>RDM, pays à faible revenu</t>
+  </si>
+  <si>
+    <t>Afrique, pays à revenu intermediaire, tranche inférieure</t>
+  </si>
+  <si>
+    <t>RDM, pays à revenu intermédiaire, tranche inférieure</t>
+  </si>
+  <si>
+    <t>Afrique, pays à revenu intermediaire, tranche supérieure</t>
+  </si>
+  <si>
+    <t>RDM, pays à revenu intermédiaire, tranche supérieure</t>
+  </si>
+  <si>
+    <t>Pays à revenu élevé</t>
+  </si>
+  <si>
+    <t>Afrique, pays les moins avancés</t>
+  </si>
+  <si>
+    <t>RDM, pays les moins avancés</t>
+  </si>
+  <si>
+    <t>Afrique, petits États insulaires en développement</t>
+  </si>
+  <si>
+    <t>RDM, petits États insulaires en développement</t>
+  </si>
+  <si>
+    <t>Afrique, pays en développement sans littoral</t>
+  </si>
+  <si>
+    <t>RDM, pays en développement sans littoral</t>
+  </si>
+  <si>
+    <t>Afrique, États fragiles</t>
+  </si>
+  <si>
+    <t>RDM, États fragiles</t>
+  </si>
+  <si>
+    <t>Responsabilité : Ce tableau ainsi que toutes les données qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
+  </si>
+  <si>
+    <t>Note : *Pays riches en ressources ; ".."signifie que les données ne sont pas disponibles ou qu'elles ne sont pas valables.</t>
+  </si>
+  <si>
+    <t>RDM = "Reste du monde" ; ALC = "Pays d'Amérique latine et des Caraïbes"</t>
+  </si>
+  <si>
+    <t>CEN-SAD = « Communauté des États sahélo-sahariens » ; COMESA = « Marché commun de l’Afrique orientale et australe » ; EAC = « Communauté d’Afrique de l’Est » ; ECCAS = « Communauté économique des États de l’Afrique centrale » ; ECOWAS = « Communauté économique des États de l’Afrique de l’Ouest » ; IGAD = « Autorité intergouvernementale pour le développement » ; SADC = « Communauté de développement de l’Afrique australe » ; UMA = « Union du Maghreb arabe » ; PALOP = « Pays africains de langue officielle portugaise » ; ASEAN = « Association des nations de l’Asie du Sud-Est » ; MERCOSUR = « Marché commun du Sud ».
+EU27 = « Union européenne (27 membres) ». OECD = « Organisation de coopération et de développement économiques ».</t>
+  </si>
+  <si>
+    <t>Source : Base de données sur les coûts commerciaux ESCAP-Banque mondiale (mise à jour le 13/08/2025).</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour accéder à la liste des indicateurs, leurs descriptions et détails pour plus d’informations sur les indicateurs présentés dans ce tableau.</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour accéder à la liste des pays et des regroupements de pays utilisés pour agréger les indicateurs et voir quels pays appartiennent à chaque regroupement.</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour télécharger toutes les données de l’Annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques depuis 2000 (dans un format de fichier compressé).</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour visiter le site web où vous trouverez le rapport sur la dynamique du développement en Afrique, ainsi que des liens pour explorer ces données plus en détail et consulter les valeurs historiques de ces indicateurs.</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour accéder à la liste complète des sources utilisées dans l'annexe statistique.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -706,16 +715,6 @@
       <u/>
       <sz val="12"/>
       <color rgb="FFD42C2D"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FFA54917"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1176,8 +1175,8 @@
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1460,20 +1459,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D969AF3-4661-49F4-892E-F52C001EF137}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B25F7E0-E125-4D95-9E8A-CD974046D534}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N113"/>
+  <dimension ref="A1:N115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="14.453125" style="82" customWidth="1"/>
-    <col min="15" max="26" width="14.453125" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" style="82" customWidth="1"/>
+    <col min="4" max="26" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1493,7 +1492,7 @@
       <c r="M1" s="4"/>
       <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="1:14" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="84.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1978,9 +1977,11 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="28"/>
+      <c r="A13" s="28" t="s">
+        <v>36</v>
+      </c>
       <c r="B13" s="29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="30">
         <v>52.829191000000002</v>
@@ -2021,10 +2022,10 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="21">
         <v>140.564547</v>
@@ -2065,10 +2066,10 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="21">
         <v>175.469291</v>
@@ -2109,10 +2110,10 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>17</v>
@@ -2153,10 +2154,10 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="34">
         <v>242.301604</v>
@@ -2197,10 +2198,10 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" s="34" t="s">
         <v>17</v>
@@ -2241,10 +2242,10 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" s="17">
         <v>83.975939999999994</v>
@@ -2285,10 +2286,10 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" s="34" t="s">
         <v>17</v>
@@ -2329,10 +2330,10 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" s="34" t="s">
         <v>17</v>
@@ -2373,10 +2374,10 @@
     </row>
     <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C22" s="38" t="s">
         <v>17</v>
@@ -2416,9 +2417,11 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="28"/>
+      <c r="A23" s="28" t="s">
+        <v>36</v>
+      </c>
       <c r="B23" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" s="30">
         <v>120.572165</v>
@@ -2459,10 +2462,10 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B24" s="41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C24" s="42" t="s">
         <v>17</v>
@@ -2503,10 +2506,10 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C25" s="21" t="s">
         <v>17</v>
@@ -2547,10 +2550,10 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C26" s="21" t="s">
         <v>17</v>
@@ -2591,10 +2594,10 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C27" s="21">
         <v>148.084283</v>
@@ -2635,10 +2638,10 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C28" s="21">
         <v>82.544489999999996</v>
@@ -2679,10 +2682,10 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C29" s="21" t="s">
         <v>17</v>
@@ -2723,10 +2726,10 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C30" s="21" t="s">
         <v>17</v>
@@ -2767,10 +2770,10 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C31" s="21">
         <v>146.67048199999999</v>
@@ -2811,10 +2814,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C32" s="21" t="s">
         <v>17</v>
@@ -2855,10 +2858,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C33" s="21" t="s">
         <v>17</v>
@@ -2899,10 +2902,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C34" s="34" t="s">
         <v>17</v>
@@ -2943,10 +2946,10 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C35" s="21">
         <v>110.545419</v>
@@ -2987,10 +2990,10 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C36" s="21">
         <v>83.260744000000003</v>
@@ -3031,10 +3034,10 @@
     </row>
     <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C37" s="25">
         <v>92.904205000000005</v>
@@ -3074,9 +3077,11 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="28"/>
+      <c r="A38" s="28" t="s">
+        <v>36</v>
+      </c>
       <c r="B38" s="29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C38" s="30">
         <v>89.503927000000004</v>
@@ -3117,10 +3122,10 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B39" s="45" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C39" s="46">
         <v>91.183381999999995</v>
@@ -3161,10 +3166,10 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C40" s="21">
         <v>162.19438099999999</v>
@@ -3205,10 +3210,10 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B41" s="49" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C41" s="34" t="s">
         <v>17</v>
@@ -3249,10 +3254,10 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B42" s="49" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C42" s="34">
         <v>129.88137900000001</v>
@@ -3293,10 +3298,10 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C43" s="21">
         <v>43.560074999999998</v>
@@ -3337,10 +3342,10 @@
     </row>
     <row r="44" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B44" s="37" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C44" s="38" t="s">
         <v>17</v>
@@ -3380,9 +3385,11 @@
       </c>
     </row>
     <row r="45" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="28"/>
+      <c r="A45" s="28" t="s">
+        <v>36</v>
+      </c>
       <c r="B45" s="29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C45" s="30">
         <v>52.616210000000002</v>
@@ -3423,10 +3430,10 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B46" s="41" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C46" s="42">
         <v>146.36878899999999</v>
@@ -3467,10 +3474,10 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C47" s="21">
         <v>73.623061000000007</v>
@@ -3511,10 +3518,10 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B48" s="49" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C48" s="34" t="s">
         <v>17</v>
@@ -3555,10 +3562,10 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C49" s="21">
         <v>56.779057000000002</v>
@@ -3599,10 +3606,10 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C50" s="21">
         <v>119.708324</v>
@@ -3643,10 +3650,10 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C51" s="17">
         <v>84.814919000000003</v>
@@ -3687,10 +3694,10 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C52" s="21" t="s">
         <v>17</v>
@@ -3731,10 +3738,10 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C53" s="21" t="s">
         <v>17</v>
@@ -3775,10 +3782,10 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C54" s="21" t="s">
         <v>17</v>
@@ -3819,10 +3826,10 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C55" s="21">
         <v>48.228645</v>
@@ -3863,10 +3870,10 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C56" s="21">
         <v>115.94846</v>
@@ -3907,10 +3914,10 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C57" s="21">
         <v>184.358328</v>
@@ -3951,10 +3958,10 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C58" s="21">
         <v>61.491664</v>
@@ -3995,10 +4002,10 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C59" s="21" t="s">
         <v>17</v>
@@ -4039,10 +4046,10 @@
     </row>
     <row r="60" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C60" s="25">
         <v>91.465549999999993</v>
@@ -4082,9 +4089,11 @@
       </c>
     </row>
     <row r="61" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="28"/>
+      <c r="A61" s="28" t="s">
+        <v>36</v>
+      </c>
       <c r="B61" s="29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C61" s="30">
         <v>99.656113000000005</v>
@@ -4124,9 +4133,11 @@
       </c>
     </row>
     <row r="62" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="50"/>
+      <c r="A62" s="50" t="s">
+        <v>36</v>
+      </c>
       <c r="B62" s="51" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C62" s="52">
         <v>64.746506999999994</v>
@@ -4166,9 +4177,11 @@
       </c>
     </row>
     <row r="63" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="50"/>
+      <c r="A63" s="50" t="s">
+        <v>36</v>
+      </c>
       <c r="B63" s="51" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C63" s="52">
         <v>41.903945999999998</v>
@@ -4208,9 +4221,11 @@
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A64" s="55"/>
+      <c r="A64" s="55" t="s">
+        <v>36</v>
+      </c>
       <c r="B64" s="56" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C64" s="57">
         <v>41.007192000000003</v>
@@ -4250,9 +4265,11 @@
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A65" s="55"/>
+      <c r="A65" s="55" t="s">
+        <v>36</v>
+      </c>
       <c r="B65" s="60" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C65" s="61" t="s">
         <v>17</v>
@@ -4292,9 +4309,11 @@
       </c>
     </row>
     <row r="66" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="55"/>
+      <c r="A66" s="55" t="s">
+        <v>36</v>
+      </c>
       <c r="B66" s="64" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C66" s="65">
         <v>42.213144</v>
@@ -4334,9 +4353,11 @@
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A67" s="55"/>
+      <c r="A67" s="55" t="s">
+        <v>36</v>
+      </c>
       <c r="B67" s="60" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C67" s="61">
         <v>82.115178</v>
@@ -4376,9 +4397,11 @@
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A68" s="55"/>
+      <c r="A68" s="55" t="s">
+        <v>36</v>
+      </c>
       <c r="B68" s="60" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C68" s="61">
         <v>67.640620999999996</v>
@@ -4418,9 +4441,11 @@
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A69" s="55"/>
+      <c r="A69" s="55" t="s">
+        <v>36</v>
+      </c>
       <c r="B69" s="60" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C69" s="61">
         <v>87.090728999999996</v>
@@ -4460,9 +4485,11 @@
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A70" s="55"/>
+      <c r="A70" s="55" t="s">
+        <v>36</v>
+      </c>
       <c r="B70" s="60" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C70" s="61">
         <v>121.241238</v>
@@ -4502,9 +4529,11 @@
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A71" s="55"/>
+      <c r="A71" s="55" t="s">
+        <v>36</v>
+      </c>
       <c r="B71" s="60" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C71" s="61">
         <v>99.656113000000005</v>
@@ -4544,9 +4573,11 @@
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A72" s="55"/>
+      <c r="A72" s="55" t="s">
+        <v>36</v>
+      </c>
       <c r="B72" s="60" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C72" s="61">
         <v>93.157685000000001</v>
@@ -4586,9 +4617,11 @@
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A73" s="55"/>
+      <c r="A73" s="55" t="s">
+        <v>36</v>
+      </c>
       <c r="B73" s="60" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C73" s="61">
         <v>56.529198000000001</v>
@@ -4628,9 +4661,11 @@
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A74" s="55"/>
+      <c r="A74" s="55" t="s">
+        <v>36</v>
+      </c>
       <c r="B74" s="60" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C74" s="61">
         <v>46.043653999999997</v>
@@ -4670,9 +4705,11 @@
       </c>
     </row>
     <row r="75" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="55"/>
+      <c r="A75" s="55" t="s">
+        <v>36</v>
+      </c>
       <c r="B75" s="60" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C75" s="68">
         <v>66.891931999999997</v>
@@ -4712,9 +4749,11 @@
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A76" s="55"/>
+      <c r="A76" s="55" t="s">
+        <v>36</v>
+      </c>
       <c r="B76" s="71" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C76" s="72" t="s">
         <v>17</v>
@@ -4754,9 +4793,11 @@
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A77" s="55"/>
+      <c r="A77" s="55" t="s">
+        <v>36</v>
+      </c>
       <c r="B77" s="60" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C77" s="61">
         <v>85.915170000000003</v>
@@ -4796,9 +4837,11 @@
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A78" s="55"/>
+      <c r="A78" s="55" t="s">
+        <v>36</v>
+      </c>
       <c r="B78" s="60" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C78" s="61">
         <v>34.318731999999997</v>
@@ -4838,9 +4881,11 @@
       </c>
     </row>
     <row r="79" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="55"/>
+      <c r="A79" s="55" t="s">
+        <v>36</v>
+      </c>
       <c r="B79" s="64" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C79" s="65">
         <v>33.485402999999998</v>
@@ -4880,9 +4925,11 @@
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A80" s="55"/>
+      <c r="A80" s="55" t="s">
+        <v>36</v>
+      </c>
       <c r="B80" s="71" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C80" s="72">
         <v>154.85246799999999</v>
@@ -4922,9 +4969,11 @@
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A81" s="55"/>
+      <c r="A81" s="55" t="s">
+        <v>36</v>
+      </c>
       <c r="B81" s="60" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C81" s="61">
         <v>68.916083999999998</v>
@@ -4964,9 +5013,11 @@
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A82" s="55"/>
+      <c r="A82" s="55" t="s">
+        <v>36</v>
+      </c>
       <c r="B82" s="60" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C82" s="61">
         <v>61.580475999999997</v>
@@ -5006,9 +5057,11 @@
       </c>
     </row>
     <row r="83" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="55"/>
+      <c r="A83" s="55" t="s">
+        <v>36</v>
+      </c>
       <c r="B83" s="64" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C83" s="65">
         <v>39.990015</v>
@@ -5048,9 +5101,11 @@
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A84" s="55"/>
+      <c r="A84" s="55" t="s">
+        <v>36</v>
+      </c>
       <c r="B84" s="71" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C84" s="72">
         <v>81.146351999999993</v>
@@ -5090,9 +5145,11 @@
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A85" s="55"/>
+      <c r="A85" s="55" t="s">
+        <v>36</v>
+      </c>
       <c r="B85" s="75" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C85" s="61" t="s">
         <v>17</v>
@@ -5132,9 +5189,11 @@
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A86" s="55"/>
+      <c r="A86" s="55" t="s">
+        <v>36</v>
+      </c>
       <c r="B86" s="60" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C86" s="61">
         <v>69.632504999999995</v>
@@ -5174,9 +5233,11 @@
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A87" s="55"/>
+      <c r="A87" s="55" t="s">
+        <v>36</v>
+      </c>
       <c r="B87" s="60" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C87" s="61">
         <v>88.356634999999997</v>
@@ -5216,9 +5277,11 @@
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A88" s="55"/>
+      <c r="A88" s="55" t="s">
+        <v>36</v>
+      </c>
       <c r="B88" s="60" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C88" s="61">
         <v>50.046408</v>
@@ -5258,9 +5321,11 @@
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A89" s="55"/>
+      <c r="A89" s="55" t="s">
+        <v>36</v>
+      </c>
       <c r="B89" s="60" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C89" s="61">
         <v>58.134315000000001</v>
@@ -5300,9 +5365,11 @@
       </c>
     </row>
     <row r="90" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="55"/>
+      <c r="A90" s="55" t="s">
+        <v>36</v>
+      </c>
       <c r="B90" s="64" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C90" s="65">
         <v>33.922539999999998</v>
@@ -5342,9 +5409,11 @@
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A91" s="55"/>
+      <c r="A91" s="55" t="s">
+        <v>36</v>
+      </c>
       <c r="B91" s="71" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C91" s="72">
         <v>79.942391999999998</v>
@@ -5384,9 +5453,11 @@
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A92" s="55"/>
+      <c r="A92" s="55" t="s">
+        <v>36</v>
+      </c>
       <c r="B92" s="60" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C92" s="61">
         <v>91.225538</v>
@@ -5426,9 +5497,11 @@
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A93" s="55"/>
+      <c r="A93" s="55" t="s">
+        <v>36</v>
+      </c>
       <c r="B93" s="60" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C93" s="61" t="s">
         <v>17</v>
@@ -5468,9 +5541,11 @@
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A94" s="55"/>
+      <c r="A94" s="55" t="s">
+        <v>36</v>
+      </c>
       <c r="B94" s="60" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C94" s="61">
         <v>149.00182799999999</v>
@@ -5510,9 +5585,11 @@
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A95" s="55"/>
+      <c r="A95" s="55" t="s">
+        <v>36</v>
+      </c>
       <c r="B95" s="60" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C95" s="61">
         <v>64.079357999999999</v>
@@ -5552,9 +5629,11 @@
       </c>
     </row>
     <row r="96" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="55"/>
+      <c r="A96" s="55" t="s">
+        <v>36</v>
+      </c>
       <c r="B96" s="64" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C96" s="65">
         <v>89.961342000000002</v>
@@ -5594,9 +5673,11 @@
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A97" s="55"/>
+      <c r="A97" s="55" t="s">
+        <v>36</v>
+      </c>
       <c r="B97" s="71" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C97" s="72">
         <v>83.977541000000002</v>
@@ -5636,9 +5717,11 @@
       </c>
     </row>
     <row r="98" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="55"/>
+      <c r="A98" s="55" t="s">
+        <v>36</v>
+      </c>
       <c r="B98" s="64" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C98" s="65">
         <v>96.112909999999999</v>
@@ -5695,7 +5778,7 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C100" s="78"/>
       <c r="D100" s="78"/>
@@ -5712,7 +5795,7 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C101" s="78"/>
       <c r="D101" s="78"/>
@@ -5729,7 +5812,7 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C102" s="78"/>
       <c r="D102" s="78"/>
@@ -5746,7 +5829,7 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C103" s="78"/>
       <c r="D103" s="78"/>
@@ -5763,7 +5846,7 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C104" s="78"/>
       <c r="D104" s="78"/>
@@ -5779,6 +5862,9 @@
       <c r="N104" s="78"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="C105" s="78"/>
       <c r="D105" s="78"/>
       <c r="E105" s="78"/>
@@ -5793,6 +5879,9 @@
       <c r="N105" s="78"/>
     </row>
     <row r="106" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="B106" s="79"/>
       <c r="C106" s="78"/>
       <c r="D106" s="78"/>
@@ -5807,10 +5896,8 @@
       <c r="M106" s="78"/>
       <c r="N106" s="78"/>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B107" s="80" t="s">
-        <v>171</v>
-      </c>
+    <row r="107" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B107" s="79"/>
       <c r="C107" s="78"/>
       <c r="D107" s="78"/>
       <c r="E107" s="78"/>
@@ -5825,7 +5912,9 @@
       <c r="N107" s="78"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B108" s="2"/>
+      <c r="B108" s="83" t="s">
+        <v>176</v>
+      </c>
       <c r="C108" s="78"/>
       <c r="D108" s="78"/>
       <c r="E108" s="78"/>
@@ -5840,9 +5929,7 @@
       <c r="N108" s="78"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B109" s="83" t="s">
-        <v>173</v>
-      </c>
+      <c r="B109" s="2"/>
       <c r="C109" s="78"/>
       <c r="D109" s="78"/>
       <c r="E109" s="78"/>
@@ -5857,8 +5944,8 @@
       <c r="N109" s="78"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B110" s="83" t="s">
-        <v>174</v>
+      <c r="B110" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="C110" s="78"/>
       <c r="D110" s="78"/>
@@ -5874,8 +5961,8 @@
       <c r="N110" s="78"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B111" s="83" t="s">
-        <v>175</v>
+      <c r="B111" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="C111" s="78"/>
       <c r="D111" s="78"/>
@@ -5891,8 +5978,8 @@
       <c r="N111" s="78"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B112" s="2" t="s">
-        <v>172</v>
+      <c r="B112" s="83" t="s">
+        <v>177</v>
       </c>
       <c r="C112" s="78"/>
       <c r="D112" s="78"/>
@@ -5908,7 +5995,9 @@
       <c r="N112" s="78"/>
     </row>
     <row r="113" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B113" s="81"/>
+      <c r="B113" s="83" t="s">
+        <v>175</v>
+      </c>
       <c r="C113" s="78"/>
       <c r="D113" s="78"/>
       <c r="E113" s="78"/>
@@ -5922,17 +6011,42 @@
       <c r="M113" s="78"/>
       <c r="N113" s="78"/>
     </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B114" s="80"/>
+      <c r="C114" s="78"/>
+      <c r="D114" s="78"/>
+      <c r="E114" s="78"/>
+      <c r="F114" s="78"/>
+      <c r="G114" s="78"/>
+      <c r="H114" s="78"/>
+      <c r="I114" s="78"/>
+      <c r="J114" s="78"/>
+      <c r="K114" s="78"/>
+      <c r="L114" s="78"/>
+      <c r="M114" s="78"/>
+      <c r="N114" s="78"/>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B115" s="80"/>
+      <c r="C115" s="81"/>
+      <c r="D115" s="81"/>
+      <c r="E115" s="81"/>
+      <c r="F115" s="81"/>
+      <c r="G115" s="81"/>
+      <c r="H115" s="81"/>
+      <c r="I115" s="81"/>
+      <c r="J115" s="81"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{92C142A2-FA20-4C50-89A9-625CA5627651}"/>
-    <hyperlink ref="B109" r:id="rId2" xr:uid="{D97EC5D5-64CE-4845-AC19-3D32DC39FDFC}"/>
-    <hyperlink ref="B110" r:id="rId3" xr:uid="{2FA98D35-31F9-4DB4-A3FC-9B0B89256A1B}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{A0EACB0F-FFF1-4C83-A418-EBDA7C13E8BC}"/>
-    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{319A9A02-D2A2-4CD1-B2E2-94B66F401DBE}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{19417237-0D26-430C-92FB-0232A88FC5D2}"/>
+    <hyperlink ref="B110" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{A5214B1A-7BF4-4A6E-A991-E8FBE2FFC5CB}"/>
+    <hyperlink ref="B111" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{87F04AE8-CBA7-4679-B3AA-9948D6449A1C}"/>
+    <hyperlink ref="B113" r:id="rId3" xr:uid="{76256108-6EAD-49DA-9634-E8A98DFCD2C3}"/>
+    <hyperlink ref="B108" r:id="rId4" xr:uid="{43CCF024-AA40-4590-81B8-475873472DB6}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{54A96A95-D9FE-4A9F-8220-119DBF4674EC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="portrait" r:id="rId6"/>
   <headerFooter>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K0000FF Restricted Use - À usage restreint</oddFooter>
   </headerFooter>
